--- a/data/nzd0487/nzd0487.xlsx
+++ b/data/nzd0487/nzd0487.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E454"/>
+  <dimension ref="A1:E458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9715,6 +9715,86 @@
       <c r="E454" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>338.69</v>
+      </c>
+      <c r="C455" t="n">
+        <v>341.4344444444445</v>
+      </c>
+      <c r="D455" t="n">
+        <v>355.7466666666667</v>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>329.5</v>
+      </c>
+      <c r="C456" t="n">
+        <v>332.7555555555556</v>
+      </c>
+      <c r="D456" t="n">
+        <v>331.5033333333333</v>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:25+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr"/>
+      <c r="C457" t="inlineStr"/>
+      <c r="D457" t="n">
+        <v>322.2066666666666</v>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>340.04</v>
+      </c>
+      <c r="C458" t="n">
+        <v>348.2233333333333</v>
+      </c>
+      <c r="D458" t="n">
+        <v>344.06</v>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -9729,7 +9809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B614"/>
+  <dimension ref="A1:B619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15877,6 +15957,56 @@
       </c>
       <c r="B614" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -16045,28 +16175,28 @@
         <v>0.1199</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1952002432340194</v>
+        <v>-0.1774982665283676</v>
       </c>
       <c r="J2" t="n">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K2" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01406263191841517</v>
+        <v>0.01171504018930769</v>
       </c>
       <c r="M2" t="n">
-        <v>8.659023303058664</v>
+        <v>8.665237630323976</v>
       </c>
       <c r="N2" t="n">
-        <v>125.1322417903836</v>
+        <v>125.4070732492534</v>
       </c>
       <c r="O2" t="n">
-        <v>11.18625235681654</v>
+        <v>11.19852995929615</v>
       </c>
       <c r="P2" t="n">
-        <v>328.9958377920984</v>
+        <v>328.8049394251101</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -16122,28 +16252,28 @@
         <v>0.1002</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1460927276574704</v>
+        <v>-0.1300824529073052</v>
       </c>
       <c r="J3" t="n">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K3" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01202003877306346</v>
+        <v>0.009568899344381876</v>
       </c>
       <c r="M3" t="n">
-        <v>7.13206610592331</v>
+        <v>7.14888038127309</v>
       </c>
       <c r="N3" t="n">
-        <v>82.37923084448754</v>
+        <v>82.87086293541915</v>
       </c>
       <c r="O3" t="n">
-        <v>9.076300504307222</v>
+        <v>9.103343503099241</v>
       </c>
       <c r="P3" t="n">
-        <v>333.9510213487905</v>
+        <v>333.7787193474087</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -16199,28 +16329,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04341947678085659</v>
+        <v>-0.03906101957498506</v>
       </c>
       <c r="J4" t="n">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K4" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0009321334507079726</v>
+        <v>0.0007563072780436553</v>
       </c>
       <c r="M4" t="n">
-        <v>7.775887359959255</v>
+        <v>7.812173517628005</v>
       </c>
       <c r="N4" t="n">
-        <v>94.31254273110007</v>
+        <v>95.0013667338996</v>
       </c>
       <c r="O4" t="n">
-        <v>9.711464499811553</v>
+        <v>9.746864456526499</v>
       </c>
       <c r="P4" t="n">
-        <v>337.2203855361009</v>
+        <v>337.1736106051403</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -16257,7 +16387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E454"/>
+  <dimension ref="A1:E458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28007,6 +28137,106 @@
         </is>
       </c>
     </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>-45.372358274273125,170.8661484202605</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>-45.37269443773675,170.8653996997559</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>-45.37325308164326,170.86494867443358</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>-45.37228612871374,170.86609108176035</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>-45.372633374162355,170.86533062913912</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>-45.37310660350376,170.8647193184138</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:25+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr"/>
+      <c r="C457" t="inlineStr"/>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>-45.37305043295718,170.86463136686046</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:25+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>-45.37236887236716,170.86615684322965</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>-45.37274220348035,170.86545372898053</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>-45.37318247089733,170.86483811162813</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0487/nzd0487.xlsx
+++ b/data/nzd0487/nzd0487.xlsx
@@ -16020,7 +16020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16111,35 +16111,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -16198,27 +16203,28 @@
       <c r="P2" t="n">
         <v>328.8049394251101</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.86403535118237 -45.36969939033532, 170.8695303336938 -45.37661316364216)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.8640353511824</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.36969939033532</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.8695303336938</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.37661316364216</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.8667828424381</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.37315627698874</v>
       </c>
     </row>
@@ -16275,27 +16281,28 @@
       <c r="P3" t="n">
         <v>333.7787193474087</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.86268251786032 -45.370292117850056, 170.86969274030736 -45.376489471145696)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.8626825178603</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.37029211785006</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.8696927403074</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.3764894711457</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.8661876290838</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.37339079449788</v>
       </c>
     </row>
@@ -16352,27 +16359,28 @@
       <c r="P4" t="n">
         <v>337.1736106051403</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.86158322344576 -45.37110361704901, 170.86991794481477 -45.37642640938395)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.8615832234458</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.37110361704901</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.8699179448148</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.37642640938395</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.8657505841303</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.37376501321648</v>
       </c>
     </row>

--- a/data/nzd0487/nzd0487.xlsx
+++ b/data/nzd0487/nzd0487.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E458"/>
+  <dimension ref="A1:E464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9793,6 +9793,132 @@
         <v>344.06</v>
       </c>
       <c r="E458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>332.73</v>
+      </c>
+      <c r="C459" t="n">
+        <v>338.9466666666667</v>
+      </c>
+      <c r="D459" t="n">
+        <v>332.84</v>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:13:54+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>318.77</v>
+      </c>
+      <c r="C460" t="n">
+        <v>322.5711111111111</v>
+      </c>
+      <c r="D460" t="n">
+        <v>328.7466666666667</v>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:03+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>328.21</v>
+      </c>
+      <c r="C461" t="n">
+        <v>331.5888888888889</v>
+      </c>
+      <c r="D461" t="n">
+        <v>332.7033333333334</v>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>323.89</v>
+      </c>
+      <c r="C462" t="n">
+        <v>326.0866666666667</v>
+      </c>
+      <c r="D462" t="n">
+        <v>334.22</v>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>330.88</v>
+      </c>
+      <c r="C463" t="n">
+        <v>345.3822222222223</v>
+      </c>
+      <c r="D463" t="n">
+        <v>345.6033333333333</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:13:56+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>322.85</v>
+      </c>
+      <c r="C464" t="n">
+        <v>337.7888888888889</v>
+      </c>
+      <c r="D464" t="n">
+        <v>342.6633333333334</v>
+      </c>
+      <c r="E464" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9809,7 +9935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B619"/>
+  <dimension ref="A1:B626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16007,6 +16133,76 @@
       </c>
       <c r="B619" t="n">
         <v>0.48</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>-0.91</v>
       </c>
     </row>
   </sheetData>
@@ -16180,28 +16376,28 @@
         <v>0.1199</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1774982665283676</v>
+        <v>-0.1718479047572559</v>
       </c>
       <c r="J2" t="n">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K2" t="n">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01171504018930769</v>
+        <v>0.01127629021098331</v>
       </c>
       <c r="M2" t="n">
-        <v>8.665237630323976</v>
+        <v>8.599664371504614</v>
       </c>
       <c r="N2" t="n">
-        <v>125.4070732492534</v>
+        <v>124.0185271150936</v>
       </c>
       <c r="O2" t="n">
-        <v>11.19852995929615</v>
+        <v>11.13636058661418</v>
       </c>
       <c r="P2" t="n">
-        <v>328.8049394251101</v>
+        <v>328.7433910193587</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16258,28 +16454,28 @@
         <v>0.1002</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1300824529073052</v>
+        <v>-0.1203069699879658</v>
       </c>
       <c r="J3" t="n">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K3" t="n">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009568899344381876</v>
+        <v>0.008339197229651929</v>
       </c>
       <c r="M3" t="n">
-        <v>7.14888038127309</v>
+        <v>7.147419521416466</v>
       </c>
       <c r="N3" t="n">
-        <v>82.87086293541915</v>
+        <v>82.70521299606294</v>
       </c>
       <c r="O3" t="n">
-        <v>9.103343503099241</v>
+        <v>9.09424064977736</v>
       </c>
       <c r="P3" t="n">
-        <v>333.7787193474087</v>
+        <v>333.6722142646264</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16336,28 +16532,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03906101957498506</v>
+        <v>-0.03912781363136088</v>
       </c>
       <c r="J4" t="n">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K4" t="n">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0007563072780436553</v>
+        <v>0.0007770035340796122</v>
       </c>
       <c r="M4" t="n">
-        <v>7.812173517628005</v>
+        <v>7.777028477625293</v>
       </c>
       <c r="N4" t="n">
-        <v>95.0013667338996</v>
+        <v>94.15197837327428</v>
       </c>
       <c r="O4" t="n">
-        <v>9.746864456526499</v>
+        <v>9.703194235573886</v>
       </c>
       <c r="P4" t="n">
-        <v>337.1736106051403</v>
+        <v>337.1740376000089</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16395,7 +16591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E458"/>
+  <dimension ref="A1:E464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28245,6 +28441,168 @@
         </is>
       </c>
     </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:14+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>-45.37231148564356,170.8661112344486</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>-45.37267693404818,170.86537990085318</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>-45.373114679650854,170.86473196402616</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:13:54+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>-45.37220189343996,170.86602413503167</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>-45.37256171763717,170.86524957680265</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>-45.37308994770488,170.8646932388206</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:03+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>-45.37227600164176,170.86608303316848</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>-45.372625165638894,170.86532134427682</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>-45.37311385391018,170.8647306710831</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>-45.37224208772244,170.866056079765</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>-45.372586452669076,170.86527755513362</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>-45.373123017616756,170.86474501959984</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>-45.37229696232503,170.86609969188507</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-45.37272221379323,170.86543111804852</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>-45.37319179571081,170.86485271246195</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:13:56+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>-45.372233923259486,170.86604959098744</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>-45.372668788069625,170.8653706867186</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>-45.3731740322417,170.86482489835066</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0487/nzd0487.xlsx
+++ b/data/nzd0487/nzd0487.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E464"/>
+  <dimension ref="A1:E467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9919,6 +9919,69 @@
         <v>342.6633333333334</v>
       </c>
       <c r="E464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:13:36+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>335.29</v>
+      </c>
+      <c r="C465" t="n">
+        <v>344.9922222222222</v>
+      </c>
+      <c r="D465" t="n">
+        <v>347.1833333333333</v>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>331.17</v>
+      </c>
+      <c r="C466" t="n">
+        <v>336.9322222222222</v>
+      </c>
+      <c r="D466" t="n">
+        <v>342.6633333333333</v>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>323</v>
+      </c>
+      <c r="C467" t="n">
+        <v>334.1566666666667</v>
+      </c>
+      <c r="D467" t="n">
+        <v>337.45</v>
+      </c>
+      <c r="E467" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9935,7 +9998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B626"/>
+  <dimension ref="A1:B631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16203,6 +16266,56 @@
       </c>
       <c r="B626" t="n">
         <v>-0.91</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -16376,28 +16489,28 @@
         <v>0.1199</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1718479047572559</v>
+        <v>-0.1639837467173007</v>
       </c>
       <c r="J2" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K2" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01127629021098331</v>
+        <v>0.0103926820077902</v>
       </c>
       <c r="M2" t="n">
-        <v>8.599664371504614</v>
+        <v>8.577281026994111</v>
       </c>
       <c r="N2" t="n">
-        <v>124.0185271150936</v>
+        <v>123.5391761795293</v>
       </c>
       <c r="O2" t="n">
-        <v>11.13636058661418</v>
+        <v>11.11481786533317</v>
       </c>
       <c r="P2" t="n">
-        <v>328.7433910193587</v>
+        <v>328.6572073246151</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16454,28 +16567,28 @@
         <v>0.1002</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1203069699879658</v>
+        <v>-0.1083691539740551</v>
       </c>
       <c r="J3" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K3" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008339197229651929</v>
+        <v>0.006826300701372801</v>
       </c>
       <c r="M3" t="n">
-        <v>7.147419521416466</v>
+        <v>7.148705112190569</v>
       </c>
       <c r="N3" t="n">
-        <v>82.70521299606294</v>
+        <v>82.72565756050629</v>
       </c>
       <c r="O3" t="n">
-        <v>9.09424064977736</v>
+        <v>9.095364619436996</v>
       </c>
       <c r="P3" t="n">
-        <v>333.6722142646264</v>
+        <v>333.5416668059248</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16532,28 +16645,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03912781363136088</v>
+        <v>-0.03012510791729692</v>
       </c>
       <c r="J4" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K4" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0007770035340796122</v>
+        <v>0.0004654367831518069</v>
       </c>
       <c r="M4" t="n">
-        <v>7.777028477625293</v>
+        <v>7.766424545174732</v>
       </c>
       <c r="N4" t="n">
-        <v>94.15197837327428</v>
+        <v>93.86883002119104</v>
       </c>
       <c r="O4" t="n">
-        <v>9.703194235573886</v>
+        <v>9.688592778169131</v>
       </c>
       <c r="P4" t="n">
-        <v>337.1740376000089</v>
+        <v>337.0748528217991</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16591,7 +16704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E464"/>
+  <dimension ref="A1:E467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28603,6 +28716,87 @@
         </is>
       </c>
     </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:13:36+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>-45.37233158277443,170.8661272068705</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>-45.372719469803776,170.8654280142417</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>-45.373201342062266,170.86486766018885</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:13:39+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>-45.372299238953424,170.8661015012595</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-45.37266276067046,170.8653638689681</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>-45.3731740322417,170.86482489835066</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>-45.37223510082628,170.86605052686872</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>-45.37264323220719,170.86534177982017</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>-45.373142533284984,170.86477557722577</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0487/nzd0487.xlsx
+++ b/data/nzd0487/nzd0487.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0487/nzd0487.xlsx
+++ b/data/nzd0487/nzd0487.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E467"/>
+  <dimension ref="A1:E468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9984,6 +9984,27 @@
       <c r="E467" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:13:42+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>311.95</v>
+      </c>
+      <c r="C468" t="n">
+        <v>319.7233333333333</v>
+      </c>
+      <c r="D468" t="n">
+        <v>312.36</v>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -9998,7 +10019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B631"/>
+  <dimension ref="A1:B632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16316,6 +16337,16 @@
       </c>
       <c r="B631" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -16489,28 +16520,28 @@
         <v>0.1199</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1639837467173007</v>
+        <v>-0.1699368139180008</v>
       </c>
       <c r="J2" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K2" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0103926820077902</v>
+        <v>0.01117249722690639</v>
       </c>
       <c r="M2" t="n">
-        <v>8.577281026994111</v>
+        <v>8.591263150662813</v>
       </c>
       <c r="N2" t="n">
-        <v>123.5391761795293</v>
+        <v>123.6116871280299</v>
       </c>
       <c r="O2" t="n">
-        <v>11.11481786533317</v>
+        <v>11.11807929131781</v>
       </c>
       <c r="P2" t="n">
-        <v>328.6572073246151</v>
+        <v>328.7226668549578</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16567,28 +16598,28 @@
         <v>0.1002</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1083691539740551</v>
+        <v>-0.113770900688831</v>
       </c>
       <c r="J3" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K3" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006826300701372801</v>
+        <v>0.007528865550577302</v>
       </c>
       <c r="M3" t="n">
-        <v>7.148705112190569</v>
+        <v>7.160373160964935</v>
       </c>
       <c r="N3" t="n">
-        <v>82.72565756050629</v>
+        <v>82.81662768996625</v>
       </c>
       <c r="O3" t="n">
-        <v>9.095364619436996</v>
+        <v>9.100364151503292</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5416668059248</v>
+        <v>333.6009154779158</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16645,28 +16676,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03012510791729692</v>
+        <v>-0.04159003861246976</v>
       </c>
       <c r="J4" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K4" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004654367831518069</v>
+        <v>0.000878359328707945</v>
       </c>
       <c r="M4" t="n">
-        <v>7.766424545174732</v>
+        <v>7.804064581141732</v>
       </c>
       <c r="N4" t="n">
-        <v>93.86883002119104</v>
+        <v>94.98941565912068</v>
       </c>
       <c r="O4" t="n">
-        <v>9.688592778169131</v>
+        <v>9.746251364453959</v>
       </c>
       <c r="P4" t="n">
-        <v>337.0748528217991</v>
+        <v>337.2015559095043</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16704,7 +16735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E467"/>
+  <dimension ref="A1:E468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28797,6 +28828,33 @@
         </is>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:13:42+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>-45.37214835338659,170.86598158371777</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>-45.37254168100574,170.86522691295752</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>-45.372990939234484,170.86453821219675</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0487/nzd0487.xlsx
+++ b/data/nzd0487/nzd0487.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E468"/>
+  <dimension ref="A1:E470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10005,6 +10005,48 @@
       <c r="E468" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:55+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>320.61</v>
+      </c>
+      <c r="C469" t="n">
+        <v>334.5033333333333</v>
+      </c>
+      <c r="D469" t="n">
+        <v>339.69</v>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>314.54</v>
+      </c>
+      <c r="C470" t="n">
+        <v>324.9922222222222</v>
+      </c>
+      <c r="D470" t="n">
+        <v>330.5633333333333</v>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10019,7 +10061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B632"/>
+  <dimension ref="A1:B634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16347,6 +16389,26 @@
       </c>
       <c r="B632" t="n">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -16520,28 +16582,28 @@
         <v>0.1199</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1699368139180008</v>
+        <v>-0.176350255233669</v>
       </c>
       <c r="J2" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K2" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01117249722690639</v>
+        <v>0.0121105543319755</v>
       </c>
       <c r="M2" t="n">
-        <v>8.591263150662813</v>
+        <v>8.587761984514446</v>
       </c>
       <c r="N2" t="n">
-        <v>123.6116871280299</v>
+        <v>123.2892854847408</v>
       </c>
       <c r="O2" t="n">
-        <v>11.11807929131781</v>
+        <v>11.10357084386554</v>
       </c>
       <c r="P2" t="n">
-        <v>328.7226668549578</v>
+        <v>328.79349462302</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16598,28 +16660,28 @@
         <v>0.1002</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.113770900688831</v>
+        <v>-0.1146678886348963</v>
       </c>
       <c r="J3" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K3" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007528865550577302</v>
+        <v>0.007711457959414303</v>
       </c>
       <c r="M3" t="n">
-        <v>7.160373160964935</v>
+        <v>7.149269695571718</v>
       </c>
       <c r="N3" t="n">
-        <v>82.81662768996625</v>
+        <v>82.53305382906225</v>
       </c>
       <c r="O3" t="n">
-        <v>9.100364151503292</v>
+        <v>9.084770433481644</v>
       </c>
       <c r="P3" t="n">
-        <v>333.6009154779158</v>
+        <v>333.6108423797556</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16676,28 +16738,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04159003861246976</v>
+        <v>-0.04255165755551388</v>
       </c>
       <c r="J4" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K4" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000878359328707945</v>
+        <v>0.0009271458419197742</v>
       </c>
       <c r="M4" t="n">
-        <v>7.804064581141732</v>
+        <v>7.788820027502595</v>
       </c>
       <c r="N4" t="n">
-        <v>94.98941565912068</v>
+        <v>94.64580150124668</v>
       </c>
       <c r="O4" t="n">
-        <v>9.746251364453959</v>
+        <v>9.728607377278964</v>
       </c>
       <c r="P4" t="n">
-        <v>337.2015559095043</v>
+        <v>337.2122727043189</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16735,7 +16797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E468"/>
+  <dimension ref="A1:E470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28855,6 +28917,60 @@
         </is>
       </c>
     </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:55+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>-45.37221633826118,170.8660356151651</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>-45.37264567131092,170.86534453875214</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>-45.3731560673661,170.86479676890443</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>-45.37216868604791,170.86599774322502</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>-45.37257875228847,170.86526884506276</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>-45.37310092401797,170.86471042549152</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0487/nzd0487.xlsx
+++ b/data/nzd0487/nzd0487.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E470"/>
+  <dimension ref="A1:E471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10045,6 +10045,27 @@
         <v>330.5633333333333</v>
       </c>
       <c r="E470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>321.75</v>
+      </c>
+      <c r="C471" t="n">
+        <v>328.8488888888889</v>
+      </c>
+      <c r="D471" t="n">
+        <v>332.4733333333334</v>
+      </c>
+      <c r="E471" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10061,7 +10082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B634"/>
+  <dimension ref="A1:B635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16409,6 +16430,16 @@
       </c>
       <c r="B634" t="n">
         <v>0.29</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -16582,28 +16613,28 @@
         <v>0.1199</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.176350255233669</v>
+        <v>-0.177521728829986</v>
       </c>
       <c r="J2" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K2" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0121105543319755</v>
+        <v>0.01232638681421272</v>
       </c>
       <c r="M2" t="n">
-        <v>8.587761984514446</v>
+        <v>8.574548497316281</v>
       </c>
       <c r="N2" t="n">
-        <v>123.2892854847408</v>
+        <v>123.0179190020073</v>
       </c>
       <c r="O2" t="n">
-        <v>11.10357084386554</v>
+        <v>11.09134432798871</v>
       </c>
       <c r="P2" t="n">
-        <v>328.79349462302</v>
+        <v>328.806463925368</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16660,28 +16691,28 @@
         <v>0.1002</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1146678886348963</v>
+        <v>-0.1155384341127795</v>
       </c>
       <c r="J3" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K3" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007711457959414303</v>
+        <v>0.007865433232225327</v>
       </c>
       <c r="M3" t="n">
-        <v>7.149269695571718</v>
+        <v>7.136850654514111</v>
       </c>
       <c r="N3" t="n">
-        <v>82.53305382906225</v>
+        <v>82.34410552396614</v>
       </c>
       <c r="O3" t="n">
-        <v>9.084770433481644</v>
+        <v>9.074365295929304</v>
       </c>
       <c r="P3" t="n">
-        <v>333.6108423797556</v>
+        <v>333.6204561694747</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16738,28 +16769,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04255165755551388</v>
+        <v>-0.04428291265830715</v>
       </c>
       <c r="J4" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K4" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0009271458419197742</v>
+        <v>0.001008475418558974</v>
       </c>
       <c r="M4" t="n">
-        <v>7.788820027502595</v>
+        <v>7.778987885683968</v>
       </c>
       <c r="N4" t="n">
-        <v>94.64580150124668</v>
+        <v>94.45488233546605</v>
       </c>
       <c r="O4" t="n">
-        <v>9.728607377278964</v>
+        <v>9.718790168301096</v>
       </c>
       <c r="P4" t="n">
-        <v>337.2122727043189</v>
+        <v>337.2315374974234</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16797,7 +16828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E470"/>
+  <dimension ref="A1:E471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28971,6 +29002,33 @@
         </is>
       </c>
     </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>-45.37222528776945,170.86604272785934</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-45.3726058873324,170.865299538125</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>-45.37311246424903,170.8647284951546</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0487/nzd0487.xlsx
+++ b/data/nzd0487/nzd0487.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E471"/>
+  <dimension ref="A1:E475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10066,6 +10066,90 @@
         <v>332.4733333333334</v>
       </c>
       <c r="E471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>329.85</v>
+      </c>
+      <c r="C472" t="n">
+        <v>328.1255555555555</v>
+      </c>
+      <c r="D472" t="n">
+        <v>336.3033333333333</v>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>324.11</v>
+      </c>
+      <c r="C473" t="n">
+        <v>329.8311111111111</v>
+      </c>
+      <c r="D473" t="n">
+        <v>327.3466666666666</v>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>331.07</v>
+      </c>
+      <c r="C474" t="n">
+        <v>338.7366666666667</v>
+      </c>
+      <c r="D474" t="n">
+        <v>343.76</v>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="C475" t="n">
+        <v>328.8866666666667</v>
+      </c>
+      <c r="D475" t="n">
+        <v>327.29</v>
+      </c>
+      <c r="E475" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10082,7 +10166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B635"/>
+  <dimension ref="A1:B639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16440,6 +16524,46 @@
       </c>
       <c r="B635" t="n">
         <v>0.53</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -16613,28 +16737,28 @@
         <v>0.1199</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.177521728829986</v>
+        <v>-0.1678344277599492</v>
       </c>
       <c r="J2" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="K2" t="n">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01232638681421272</v>
+        <v>0.01121054691339707</v>
       </c>
       <c r="M2" t="n">
-        <v>8.574548497316281</v>
+        <v>8.536148986862104</v>
       </c>
       <c r="N2" t="n">
-        <v>123.0179190020073</v>
+        <v>122.2234459392914</v>
       </c>
       <c r="O2" t="n">
-        <v>11.09134432798871</v>
+        <v>11.05547131239964</v>
       </c>
       <c r="P2" t="n">
-        <v>328.806463925368</v>
+        <v>328.6987165215474</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16691,28 +16815,28 @@
         <v>0.1002</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1155384341127795</v>
+        <v>-0.114038372669943</v>
       </c>
       <c r="J3" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="K3" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007865433232225327</v>
+        <v>0.007796696146770588</v>
       </c>
       <c r="M3" t="n">
-        <v>7.136850654514111</v>
+        <v>7.099990285981329</v>
       </c>
       <c r="N3" t="n">
-        <v>82.34410552396614</v>
+        <v>81.74588797831643</v>
       </c>
       <c r="O3" t="n">
-        <v>9.074365295929304</v>
+        <v>9.041343261834296</v>
       </c>
       <c r="P3" t="n">
-        <v>333.6204561694747</v>
+        <v>333.6037898013507</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16769,28 +16893,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04428291265830715</v>
+        <v>-0.04878443432967897</v>
       </c>
       <c r="J4" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="K4" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001008475418558974</v>
+        <v>0.00124041628923266</v>
       </c>
       <c r="M4" t="n">
-        <v>7.778987885683968</v>
+        <v>7.765696898995061</v>
       </c>
       <c r="N4" t="n">
-        <v>94.45488233546605</v>
+        <v>94.06989647564143</v>
       </c>
       <c r="O4" t="n">
-        <v>9.718790168301096</v>
+        <v>9.698963680499141</v>
       </c>
       <c r="P4" t="n">
-        <v>337.2315374974234</v>
+        <v>337.281874597774</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16828,7 +16952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E471"/>
+  <dimension ref="A1:E475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29029,6 +29153,114 @@
         </is>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-45.37228887636884,170.86609326548734</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-45.37260079804645,170.8652937815156</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-45.37313560512297,170.8647647291085</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-45.37224381482033,170.86605745239126</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-45.37261279812885,170.8653073550893</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-45.373081488893085,170.86467999405124</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>-45.37229845390916,170.86610087733726</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-45.37267545651469,170.8653782295752</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>-45.37318065829839,170.86483527345362</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>-45.37230968004186,170.86610979942688</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-45.37260615313228,170.86529983877742</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>-45.37308114651258,170.86467945795349</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0487/nzd0487.xlsx
+++ b/data/nzd0487/nzd0487.xlsx
@@ -16728,13 +16728,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0828</v>
+        <v>0.0384</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1199</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1678344277599493</v>
@@ -16806,13 +16806,13 @@
         <v>0.4987179437781449</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0789</v>
+        <v>0.1251</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1002</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1140143836438762</v>
@@ -16884,10 +16884,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.15</v>
+        <v>0.185</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1172</v>
+        <v>0.1298</v>
       </c>
       <c r="H4" t="n">
         <v>0.2</v>

--- a/data/nzd0487/nzd0487.xlsx
+++ b/data/nzd0487/nzd0487.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E479"/>
+  <dimension ref="A1:E480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
         <v>309.31</v>
       </c>
       <c r="C2" t="n">
-        <v>323.81</v>
+        <v>323.92</v>
       </c>
       <c r="D2" t="n">
         <v>328.37</v>
@@ -494,7 +494,7 @@
         <v>322.31</v>
       </c>
       <c r="C3" t="n">
-        <v>322.87</v>
+        <v>322.85</v>
       </c>
       <c r="D3" t="n">
         <v>329.6</v>
@@ -515,7 +515,7 @@
         <v>327.78</v>
       </c>
       <c r="C4" t="n">
-        <v>325.01</v>
+        <v>324.96</v>
       </c>
       <c r="D4" t="n">
         <v>331.22</v>
@@ -536,7 +536,7 @@
         <v>329.15</v>
       </c>
       <c r="C5" t="n">
-        <v>328.86</v>
+        <v>328.82</v>
       </c>
       <c r="D5" t="n">
         <v>333.23</v>
@@ -557,7 +557,7 @@
         <v>328.07</v>
       </c>
       <c r="C6" t="n">
-        <v>329.35</v>
+        <v>329.32</v>
       </c>
       <c r="D6" t="n">
         <v>335.33</v>
@@ -578,7 +578,7 @@
         <v>322.64</v>
       </c>
       <c r="C7" t="n">
-        <v>335.52</v>
+        <v>335.53</v>
       </c>
       <c r="D7" t="n">
         <v>340.41</v>
@@ -599,7 +599,7 @@
         <v>321.26</v>
       </c>
       <c r="C8" t="n">
-        <v>331.57</v>
+        <v>331.56</v>
       </c>
       <c r="D8" t="n">
         <v>336.81</v>
@@ -620,7 +620,7 @@
         <v>324.09</v>
       </c>
       <c r="C9" t="n">
-        <v>333.7</v>
+        <v>333.68</v>
       </c>
       <c r="D9" t="n">
         <v>339.17</v>
@@ -641,7 +641,7 @@
         <v>323.27</v>
       </c>
       <c r="C10" t="n">
-        <v>333.54</v>
+        <v>333.53</v>
       </c>
       <c r="D10" t="n">
         <v>338.64</v>
@@ -662,7 +662,7 @@
         <v>325.52</v>
       </c>
       <c r="C11" t="n">
-        <v>331.5</v>
+        <v>331.45</v>
       </c>
       <c r="D11" t="n">
         <v>336.38</v>
@@ -683,7 +683,7 @@
         <v>329.37</v>
       </c>
       <c r="C12" t="n">
-        <v>331.73</v>
+        <v>331.67</v>
       </c>
       <c r="D12" t="n">
         <v>335.32</v>
@@ -704,7 +704,7 @@
         <v>330.87</v>
       </c>
       <c r="C13" t="n">
-        <v>330.19</v>
+        <v>330.13</v>
       </c>
       <c r="D13" t="n">
         <v>333</v>
@@ -725,7 +725,7 @@
         <v>332.47</v>
       </c>
       <c r="C14" t="n">
-        <v>331.7</v>
+        <v>331.64</v>
       </c>
       <c r="D14" t="n">
         <v>333.61</v>
@@ -746,7 +746,7 @@
         <v>330.19</v>
       </c>
       <c r="C15" t="n">
-        <v>327.08</v>
+        <v>327.02</v>
       </c>
       <c r="D15" t="n">
         <v>328.35</v>
@@ -767,7 +767,7 @@
         <v>328.98</v>
       </c>
       <c r="C16" t="n">
-        <v>329.05</v>
+        <v>329.03</v>
       </c>
       <c r="D16" t="n">
         <v>330.67</v>
@@ -788,7 +788,7 @@
         <v>320.75</v>
       </c>
       <c r="C17" t="n">
-        <v>327.05</v>
+        <v>327.07</v>
       </c>
       <c r="D17" t="n">
         <v>331.33</v>
@@ -809,7 +809,7 @@
         <v>322.17</v>
       </c>
       <c r="C18" t="n">
-        <v>328.15</v>
+        <v>328.17</v>
       </c>
       <c r="D18" t="n">
         <v>333.45</v>
@@ -830,7 +830,7 @@
         <v>326.42</v>
       </c>
       <c r="C19" t="n">
-        <v>329.21</v>
+        <v>329.2</v>
       </c>
       <c r="D19" t="n">
         <v>333.62</v>
@@ -851,7 +851,7 @@
         <v>327.51</v>
       </c>
       <c r="C20" t="n">
-        <v>335.97</v>
+        <v>336.05</v>
       </c>
       <c r="D20" t="n">
         <v>337.23</v>
@@ -872,7 +872,7 @@
         <v>325.02</v>
       </c>
       <c r="C21" t="n">
-        <v>335.81</v>
+        <v>335.91</v>
       </c>
       <c r="D21" t="n">
         <v>338.41</v>
@@ -893,7 +893,7 @@
         <v>323.42</v>
       </c>
       <c r="C22" t="n">
-        <v>337.63</v>
+        <v>337.73</v>
       </c>
       <c r="D22" t="n">
         <v>340.32</v>
@@ -914,7 +914,7 @@
         <v>323.05</v>
       </c>
       <c r="C23" t="n">
-        <v>335.67</v>
+        <v>335.74</v>
       </c>
       <c r="D23" t="n">
         <v>338.69</v>
@@ -935,7 +935,7 @@
         <v>321.03</v>
       </c>
       <c r="C24" t="n">
-        <v>333.62</v>
+        <v>333.68</v>
       </c>
       <c r="D24" t="n">
         <v>336.63</v>
@@ -956,7 +956,7 @@
         <v>320.62</v>
       </c>
       <c r="C25" t="n">
-        <v>331.52</v>
+        <v>331.56</v>
       </c>
       <c r="D25" t="n">
         <v>334.94</v>
@@ -977,7 +977,7 @@
         <v>317.64</v>
       </c>
       <c r="C26" t="n">
-        <v>328.96</v>
+        <v>329.01</v>
       </c>
       <c r="D26" t="n">
         <v>332.31</v>
@@ -998,7 +998,7 @@
         <v>318.8</v>
       </c>
       <c r="C27" t="n">
-        <v>326.74</v>
+        <v>326.77</v>
       </c>
       <c r="D27" t="n">
         <v>332.04</v>
@@ -1019,7 +1019,7 @@
         <v>320.65</v>
       </c>
       <c r="C28" t="n">
-        <v>323.46</v>
+        <v>323.48</v>
       </c>
       <c r="D28" t="n">
         <v>330.45</v>
@@ -1040,7 +1040,7 @@
         <v>325.76</v>
       </c>
       <c r="C29" t="n">
-        <v>326.56</v>
+        <v>326.58</v>
       </c>
       <c r="D29" t="n">
         <v>332.96</v>
@@ -1061,7 +1061,7 @@
         <v>315.85</v>
       </c>
       <c r="C30" t="n">
-        <v>335.09</v>
+        <v>335.23</v>
       </c>
       <c r="D30" t="n">
         <v>344.26</v>
@@ -1082,7 +1082,7 @@
         <v>321.04</v>
       </c>
       <c r="C31" t="n">
-        <v>327.2</v>
+        <v>327.25</v>
       </c>
       <c r="D31" t="n">
         <v>330.4</v>
@@ -1103,7 +1103,7 @@
         <v>328.3</v>
       </c>
       <c r="C32" t="n">
-        <v>331.81</v>
+        <v>331.82</v>
       </c>
       <c r="D32" t="n">
         <v>333.79</v>
@@ -1124,7 +1124,7 @@
         <v>333.05</v>
       </c>
       <c r="C33" t="n">
-        <v>329.43</v>
+        <v>329.41</v>
       </c>
       <c r="D33" t="n">
         <v>330.62</v>
@@ -1145,7 +1145,7 @@
         <v>328.95</v>
       </c>
       <c r="C34" t="n">
-        <v>326.86</v>
+        <v>326.85</v>
       </c>
       <c r="D34" t="n">
         <v>328.32</v>
@@ -1166,7 +1166,7 @@
         <v>330.3</v>
       </c>
       <c r="C35" t="n">
-        <v>328.21</v>
+        <v>328.2</v>
       </c>
       <c r="D35" t="n">
         <v>330.06</v>
@@ -1187,7 +1187,7 @@
         <v>332.67</v>
       </c>
       <c r="C36" t="n">
-        <v>326.68</v>
+        <v>326.63</v>
       </c>
       <c r="D36" t="n">
         <v>327.26</v>
@@ -1229,7 +1229,7 @@
         <v>322.63</v>
       </c>
       <c r="C38" t="n">
-        <v>330.77</v>
+        <v>330.78</v>
       </c>
       <c r="D38" t="n">
         <v>335.63</v>
@@ -1250,7 +1250,7 @@
         <v>322.63</v>
       </c>
       <c r="C39" t="n">
-        <v>330.77</v>
+        <v>330.78</v>
       </c>
       <c r="D39" t="n">
         <v>333.28</v>
@@ -1271,7 +1271,7 @@
         <v>323.9</v>
       </c>
       <c r="C40" t="n">
-        <v>334.27</v>
+        <v>334.26</v>
       </c>
       <c r="D40" t="n">
         <v>336.19</v>
@@ -1292,7 +1292,7 @@
         <v>318.09</v>
       </c>
       <c r="C41" t="n">
-        <v>333.13</v>
+        <v>333.15</v>
       </c>
       <c r="D41" t="n">
         <v>336.71</v>
@@ -1313,7 +1313,7 @@
         <v>316.81</v>
       </c>
       <c r="C42" t="n">
-        <v>331.9</v>
+        <v>331.94</v>
       </c>
       <c r="D42" t="n">
         <v>335.26</v>
@@ -1334,7 +1334,7 @@
         <v>318.56</v>
       </c>
       <c r="C43" t="n">
-        <v>334.66</v>
+        <v>334.69</v>
       </c>
       <c r="D43" t="n">
         <v>336.41</v>
@@ -1355,7 +1355,7 @@
         <v>322.16</v>
       </c>
       <c r="C44" t="n">
-        <v>334.66</v>
+        <v>334.69</v>
       </c>
       <c r="D44" t="n">
         <v>336.41</v>
@@ -1376,7 +1376,7 @@
         <v>324.31</v>
       </c>
       <c r="C45" t="n">
-        <v>335.33</v>
+        <v>335.35</v>
       </c>
       <c r="D45" t="n">
         <v>337.27</v>
@@ -1397,7 +1397,7 @@
         <v>326.83</v>
       </c>
       <c r="C46" t="n">
-        <v>336.67</v>
+        <v>336.69</v>
       </c>
       <c r="D46" t="n">
         <v>338.52</v>
@@ -1439,7 +1439,7 @@
         <v>331.86</v>
       </c>
       <c r="C48" t="n">
-        <v>337.24</v>
+        <v>337.25</v>
       </c>
       <c r="D48" t="n">
         <v>341.47</v>
@@ -1460,7 +1460,7 @@
         <v>342.58</v>
       </c>
       <c r="C49" t="n">
-        <v>342.98</v>
+        <v>342.94</v>
       </c>
       <c r="D49" t="n">
         <v>346.53</v>
@@ -1481,7 +1481,7 @@
         <v>337.75</v>
       </c>
       <c r="C50" t="n">
-        <v>340.1</v>
+        <v>340.08</v>
       </c>
       <c r="D50" t="n">
         <v>346.91</v>
@@ -1502,7 +1502,7 @@
         <v>332.3</v>
       </c>
       <c r="C51" t="n">
-        <v>335.66</v>
+        <v>335.65</v>
       </c>
       <c r="D51" t="n">
         <v>344.14</v>
@@ -1544,7 +1544,7 @@
         <v>324.99</v>
       </c>
       <c r="C53" t="n">
-        <v>334.94</v>
+        <v>334.97</v>
       </c>
       <c r="D53" t="n">
         <v>344.21</v>
@@ -1565,7 +1565,7 @@
         <v>321.06</v>
       </c>
       <c r="C54" t="n">
-        <v>335.12</v>
+        <v>335.17</v>
       </c>
       <c r="D54" t="n">
         <v>343.88</v>
@@ -1586,7 +1586,7 @@
         <v>319.79</v>
       </c>
       <c r="C55" t="n">
-        <v>336.18</v>
+        <v>336.23</v>
       </c>
       <c r="D55" t="n">
         <v>344.21</v>
@@ -1607,7 +1607,7 @@
         <v>322.18</v>
       </c>
       <c r="C56" t="n">
-        <v>335.27</v>
+        <v>335.29</v>
       </c>
       <c r="D56" t="n">
         <v>343.38</v>
@@ -1628,7 +1628,7 @@
         <v>317.11</v>
       </c>
       <c r="C57" t="n">
-        <v>331.79</v>
+        <v>331.84</v>
       </c>
       <c r="D57" t="n">
         <v>339.5</v>
@@ -1649,7 +1649,7 @@
         <v>319.99</v>
       </c>
       <c r="C58" t="n">
-        <v>331.79</v>
+        <v>331.84</v>
       </c>
       <c r="D58" t="n">
         <v>339.5</v>
@@ -1670,7 +1670,7 @@
         <v>320.92</v>
       </c>
       <c r="C59" t="n">
-        <v>332.57</v>
+        <v>332.64</v>
       </c>
       <c r="D59" t="n">
         <v>338.84</v>
@@ -1691,7 +1691,7 @@
         <v>322.69</v>
       </c>
       <c r="C60" t="n">
-        <v>335.15</v>
+        <v>335.22</v>
       </c>
       <c r="D60" t="n">
         <v>340.28</v>
@@ -1712,7 +1712,7 @@
         <v>326.78</v>
       </c>
       <c r="C61" t="n">
-        <v>333.28</v>
+        <v>333.36</v>
       </c>
       <c r="D61" t="n">
         <v>335.21</v>
@@ -1733,7 +1733,7 @@
         <v>332.17</v>
       </c>
       <c r="C62" t="n">
-        <v>335.96</v>
+        <v>335.98</v>
       </c>
       <c r="D62" t="n">
         <v>338.55</v>
@@ -1754,7 +1754,7 @@
         <v>325.96</v>
       </c>
       <c r="C63" t="n">
-        <v>331.91</v>
+        <v>331.92</v>
       </c>
       <c r="D63" t="n">
         <v>336.24</v>
@@ -1775,7 +1775,7 @@
         <v>323.96</v>
       </c>
       <c r="C64" t="n">
-        <v>330.49</v>
+        <v>330.48</v>
       </c>
       <c r="D64" t="n">
         <v>334.61</v>
@@ -1796,7 +1796,7 @@
         <v>320.72</v>
       </c>
       <c r="C65" t="n">
-        <v>332.59</v>
+        <v>332.61</v>
       </c>
       <c r="D65" t="n">
         <v>336.37</v>
@@ -1838,7 +1838,7 @@
         <v>317.91</v>
       </c>
       <c r="C67" t="n">
-        <v>329.69</v>
+        <v>329.71</v>
       </c>
       <c r="D67" t="n">
         <v>335.42</v>
@@ -1859,7 +1859,7 @@
         <v>316.95</v>
       </c>
       <c r="C68" t="n">
-        <v>329.34</v>
+        <v>329.37</v>
       </c>
       <c r="D68" t="n">
         <v>335.42</v>
@@ -1880,7 +1880,7 @@
         <v>318.73</v>
       </c>
       <c r="C69" t="n">
-        <v>331.68</v>
+        <v>331.69</v>
       </c>
       <c r="D69" t="n">
         <v>338.65</v>
@@ -1901,7 +1901,7 @@
         <v>319.59</v>
       </c>
       <c r="C70" t="n">
-        <v>332.1</v>
+        <v>332.11</v>
       </c>
       <c r="D70" t="n">
         <v>339.05</v>
@@ -1922,7 +1922,7 @@
         <v>322.43</v>
       </c>
       <c r="C71" t="n">
-        <v>333.42</v>
+        <v>333.41</v>
       </c>
       <c r="D71" t="n">
         <v>340.43</v>
@@ -1943,7 +1943,7 @@
         <v>320.16</v>
       </c>
       <c r="C72" t="n">
-        <v>333.75</v>
+        <v>333.77</v>
       </c>
       <c r="D72" t="n">
         <v>340.19</v>
@@ -1964,7 +1964,7 @@
         <v>320.15</v>
       </c>
       <c r="C73" t="n">
-        <v>332.72</v>
+        <v>332.75</v>
       </c>
       <c r="D73" t="n">
         <v>338.19</v>
@@ -1985,7 +1985,7 @@
         <v>322.3</v>
       </c>
       <c r="C74" t="n">
-        <v>333.9</v>
+        <v>333.92</v>
       </c>
       <c r="D74" t="n">
         <v>339.18</v>
@@ -2048,7 +2048,7 @@
         <v>332.32</v>
       </c>
       <c r="C77" t="n">
-        <v>336.99</v>
+        <v>336.94</v>
       </c>
       <c r="D77" t="n">
         <v>337.11</v>
@@ -2069,7 +2069,7 @@
         <v>322.53</v>
       </c>
       <c r="C78" t="n">
-        <v>333.9</v>
+        <v>333.89</v>
       </c>
       <c r="D78" t="n">
         <v>332.01</v>
@@ -2090,7 +2090,7 @@
         <v>317.06</v>
       </c>
       <c r="C79" t="n">
-        <v>333.29</v>
+        <v>333.31</v>
       </c>
       <c r="D79" t="n">
         <v>332.9</v>
@@ -2111,7 +2111,7 @@
         <v>314.43</v>
       </c>
       <c r="C80" t="n">
-        <v>334.55</v>
+        <v>334.58</v>
       </c>
       <c r="D80" t="n">
         <v>334.64</v>
@@ -2132,7 +2132,7 @@
         <v>315.32</v>
       </c>
       <c r="C81" t="n">
-        <v>332</v>
+        <v>332.05</v>
       </c>
       <c r="D81" t="n">
         <v>330.85</v>
@@ -2153,7 +2153,7 @@
         <v>321.3</v>
       </c>
       <c r="C82" t="n">
-        <v>335.73</v>
+        <v>335.77</v>
       </c>
       <c r="D82" t="n">
         <v>334.92</v>
@@ -2174,7 +2174,7 @@
         <v>324.35</v>
       </c>
       <c r="C83" t="n">
-        <v>335.72</v>
+        <v>335.74</v>
       </c>
       <c r="D83" t="n">
         <v>335.14</v>
@@ -2195,7 +2195,7 @@
         <v>325.67</v>
       </c>
       <c r="C84" t="n">
-        <v>335.73</v>
+        <v>335.74</v>
       </c>
       <c r="D84" t="n">
         <v>335.73</v>
@@ -2216,7 +2216,7 @@
         <v>327.44</v>
       </c>
       <c r="C85" t="n">
-        <v>335.55</v>
+        <v>335.57</v>
       </c>
       <c r="D85" t="n">
         <v>336.23</v>
@@ -2237,7 +2237,7 @@
         <v>332.01</v>
       </c>
       <c r="C86" t="n">
-        <v>338.56</v>
+        <v>338.58</v>
       </c>
       <c r="D86" t="n">
         <v>340.01</v>
@@ -2258,7 +2258,7 @@
         <v>337.63</v>
       </c>
       <c r="C87" t="n">
-        <v>338.77</v>
+        <v>338.76</v>
       </c>
       <c r="D87" t="n">
         <v>339.63</v>
@@ -2279,7 +2279,7 @@
         <v>337.21</v>
       </c>
       <c r="C88" t="n">
-        <v>338.69</v>
+        <v>338.68</v>
       </c>
       <c r="D88" t="n">
         <v>341.23</v>
@@ -2300,7 +2300,7 @@
         <v>335.41</v>
       </c>
       <c r="C89" t="n">
-        <v>335.93</v>
+        <v>335.91</v>
       </c>
       <c r="D89" t="n">
         <v>338.68</v>
@@ -2321,7 +2321,7 @@
         <v>335.16</v>
       </c>
       <c r="C90" t="n">
-        <v>335.08</v>
+        <v>335.06</v>
       </c>
       <c r="D90" t="n">
         <v>337.8</v>
@@ -2342,7 +2342,7 @@
         <v>333.59</v>
       </c>
       <c r="C91" t="n">
-        <v>334.54</v>
+        <v>334.51</v>
       </c>
       <c r="D91" t="n">
         <v>337.55</v>
@@ -2363,7 +2363,7 @@
         <v>327.87</v>
       </c>
       <c r="C92" t="n">
-        <v>331.48</v>
+        <v>331.45</v>
       </c>
       <c r="D92" t="n">
         <v>333.08</v>
@@ -2405,7 +2405,7 @@
         <v>327.25</v>
       </c>
       <c r="C94" t="n">
-        <v>331.56</v>
+        <v>331.55</v>
       </c>
       <c r="D94" t="n">
         <v>333.13</v>
@@ -2426,7 +2426,7 @@
         <v>324.04</v>
       </c>
       <c r="C95" t="n">
-        <v>330.98</v>
+        <v>330.99</v>
       </c>
       <c r="D95" t="n">
         <v>332.56</v>
@@ -2447,7 +2447,7 @@
         <v>322.53</v>
       </c>
       <c r="C96" t="n">
-        <v>334.04</v>
+        <v>334.13</v>
       </c>
       <c r="D96" t="n">
         <v>333.94</v>
@@ -2468,7 +2468,7 @@
         <v>326.8</v>
       </c>
       <c r="C97" t="n">
-        <v>335.99</v>
+        <v>336.05</v>
       </c>
       <c r="D97" t="n">
         <v>337.38</v>
@@ -2489,7 +2489,7 @@
         <v>328.86</v>
       </c>
       <c r="C98" t="n">
-        <v>336.83</v>
+        <v>336.88</v>
       </c>
       <c r="D98" t="n">
         <v>338.78</v>
@@ -2510,7 +2510,7 @@
         <v>332.48</v>
       </c>
       <c r="C99" t="n">
-        <v>336.57</v>
+        <v>336.59</v>
       </c>
       <c r="D99" t="n">
         <v>340.36</v>
@@ -2531,7 +2531,7 @@
         <v>331.97</v>
       </c>
       <c r="C100" t="n">
-        <v>336.54</v>
+        <v>336.57</v>
       </c>
       <c r="D100" t="n">
         <v>340.71</v>
@@ -2552,7 +2552,7 @@
         <v>338.09</v>
       </c>
       <c r="C101" t="n">
-        <v>340.39</v>
+        <v>340.41</v>
       </c>
       <c r="D101" t="n">
         <v>345.2</v>
@@ -2573,7 +2573,7 @@
         <v>338.09</v>
       </c>
       <c r="C102" t="n">
-        <v>340.39</v>
+        <v>340.41</v>
       </c>
       <c r="D102" t="n">
         <v>344.67</v>
@@ -2594,7 +2594,7 @@
         <v>338.1</v>
       </c>
       <c r="C103" t="n">
-        <v>340.48</v>
+        <v>340.49</v>
       </c>
       <c r="D103" t="n">
         <v>345.05</v>
@@ -2615,7 +2615,7 @@
         <v>334.41</v>
       </c>
       <c r="C104" t="n">
-        <v>337.89</v>
+        <v>337.86</v>
       </c>
       <c r="D104" t="n">
         <v>343.63</v>
@@ -2636,7 +2636,7 @@
         <v>329.37</v>
       </c>
       <c r="C105" t="n">
-        <v>341</v>
+        <v>340.99</v>
       </c>
       <c r="D105" t="n">
         <v>344.72</v>
@@ -2657,7 +2657,7 @@
         <v>332.62</v>
       </c>
       <c r="C106" t="n">
-        <v>341.3</v>
+        <v>341.26</v>
       </c>
       <c r="D106" t="n">
         <v>345.06</v>
@@ -2678,7 +2678,7 @@
         <v>333.16</v>
       </c>
       <c r="C107" t="n">
-        <v>336.18</v>
+        <v>336.14</v>
       </c>
       <c r="D107" t="n">
         <v>338.53</v>
@@ -2699,7 +2699,7 @@
         <v>332.26</v>
       </c>
       <c r="C108" t="n">
-        <v>336.18</v>
+        <v>336.14</v>
       </c>
       <c r="D108" t="n">
         <v>338.53</v>
@@ -2720,7 +2720,7 @@
         <v>332.8</v>
       </c>
       <c r="C109" t="n">
-        <v>337.56</v>
+        <v>337.57</v>
       </c>
       <c r="D109" t="n">
         <v>340.6</v>
@@ -2741,7 +2741,7 @@
         <v>337.38</v>
       </c>
       <c r="C110" t="n">
-        <v>335.88</v>
+        <v>335.84</v>
       </c>
       <c r="D110" t="n">
         <v>340.85</v>
@@ -2762,7 +2762,7 @@
         <v>336.93</v>
       </c>
       <c r="C111" t="n">
-        <v>338.35</v>
+        <v>338.34</v>
       </c>
       <c r="D111" t="n">
         <v>341.78</v>
@@ -2804,7 +2804,7 @@
         <v>328.83</v>
       </c>
       <c r="C113" t="n">
-        <v>336.95</v>
+        <v>336.98</v>
       </c>
       <c r="D113" t="n">
         <v>337.8</v>
@@ -2825,7 +2825,7 @@
         <v>320.01</v>
       </c>
       <c r="C114" t="n">
-        <v>328.16</v>
+        <v>328.15</v>
       </c>
       <c r="D114" t="n">
         <v>327.62</v>
@@ -2846,7 +2846,7 @@
         <v>321.22</v>
       </c>
       <c r="C115" t="n">
-        <v>329.56</v>
+        <v>329.58</v>
       </c>
       <c r="D115" t="n">
         <v>327.62</v>
@@ -2867,7 +2867,7 @@
         <v>323.44</v>
       </c>
       <c r="C116" t="n">
-        <v>330.71</v>
+        <v>330.74</v>
       </c>
       <c r="D116" t="n">
         <v>329.89</v>
@@ -2888,7 +2888,7 @@
         <v>327.23</v>
       </c>
       <c r="C117" t="n">
-        <v>332.3</v>
+        <v>332.31</v>
       </c>
       <c r="D117" t="n">
         <v>334.31</v>
@@ -2930,7 +2930,7 @@
         <v>331.36</v>
       </c>
       <c r="C119" t="n">
-        <v>335.12</v>
+        <v>335.14</v>
       </c>
       <c r="D119" t="n">
         <v>342.07</v>
@@ -2951,7 +2951,7 @@
         <v>334.48</v>
       </c>
       <c r="C120" t="n">
-        <v>336.45</v>
+        <v>336.46</v>
       </c>
       <c r="D120" t="n">
         <v>343.53</v>
@@ -2972,7 +2972,7 @@
         <v>337.04</v>
       </c>
       <c r="C121" t="n">
-        <v>337.83</v>
+        <v>337.8</v>
       </c>
       <c r="D121" t="n">
         <v>344.33</v>
@@ -2993,7 +2993,7 @@
         <v>332.81</v>
       </c>
       <c r="C122" t="n">
-        <v>334.69</v>
+        <v>334.68</v>
       </c>
       <c r="D122" t="n">
         <v>340.64</v>
@@ -3014,7 +3014,7 @@
         <v>333.74</v>
       </c>
       <c r="C123" t="n">
-        <v>334.48</v>
+        <v>334.45</v>
       </c>
       <c r="D123" t="n">
         <v>341.88</v>
@@ -3035,7 +3035,7 @@
         <v>332.92</v>
       </c>
       <c r="C124" t="n">
-        <v>334.4</v>
+        <v>334.37</v>
       </c>
       <c r="D124" t="n">
         <v>341.69</v>
@@ -3056,7 +3056,7 @@
         <v>332.92</v>
       </c>
       <c r="C125" t="n">
-        <v>334.4</v>
+        <v>334.37</v>
       </c>
       <c r="D125" t="n">
         <v>339.44</v>
@@ -3077,7 +3077,7 @@
         <v>329.97</v>
       </c>
       <c r="C126" t="n">
-        <v>333.27</v>
+        <v>333.24</v>
       </c>
       <c r="D126" t="n">
         <v>337.87</v>
@@ -3098,7 +3098,7 @@
         <v>326.81</v>
       </c>
       <c r="C127" t="n">
-        <v>333.27</v>
+        <v>333.24</v>
       </c>
       <c r="D127" t="n">
         <v>337.87</v>
@@ -3119,7 +3119,7 @@
         <v>326.81</v>
       </c>
       <c r="C128" t="n">
-        <v>333.27</v>
+        <v>333.24</v>
       </c>
       <c r="D128" t="n">
         <v>337.67</v>
@@ -3140,7 +3140,7 @@
         <v>328.03</v>
       </c>
       <c r="C129" t="n">
-        <v>331.99</v>
+        <v>331.94</v>
       </c>
       <c r="D129" t="n">
         <v>336.04</v>
@@ -3161,7 +3161,7 @@
         <v>329.24</v>
       </c>
       <c r="C130" t="n">
-        <v>334.11</v>
+        <v>334.07</v>
       </c>
       <c r="D130" t="n">
         <v>336.04</v>
@@ -3182,7 +3182,7 @@
         <v>327.67</v>
       </c>
       <c r="C131" t="n">
-        <v>332.61</v>
+        <v>332.58</v>
       </c>
       <c r="D131" t="n">
         <v>334.5</v>
@@ -3203,7 +3203,7 @@
         <v>325.88</v>
       </c>
       <c r="C132" t="n">
-        <v>331.02</v>
+        <v>330.99</v>
       </c>
       <c r="D132" t="n">
         <v>332.13</v>
@@ -3224,7 +3224,7 @@
         <v>329.68</v>
       </c>
       <c r="C133" t="n">
-        <v>335.51</v>
+        <v>335.47</v>
       </c>
       <c r="D133" t="n">
         <v>333.79</v>
@@ -3245,7 +3245,7 @@
         <v>328.88</v>
       </c>
       <c r="C134" t="n">
-        <v>331.01</v>
+        <v>330.96</v>
       </c>
       <c r="D134" t="n">
         <v>331.03</v>
@@ -3266,7 +3266,7 @@
         <v>325.33</v>
       </c>
       <c r="C135" t="n">
-        <v>327.07</v>
+        <v>327.12</v>
       </c>
       <c r="D135" t="n">
         <v>331.09</v>
@@ -3287,7 +3287,7 @@
         <v>322.97</v>
       </c>
       <c r="C136" t="n">
-        <v>331.4</v>
+        <v>331.46</v>
       </c>
       <c r="D136" t="n">
         <v>331.09</v>
@@ -3308,7 +3308,7 @@
         <v>320.39</v>
       </c>
       <c r="C137" t="n">
-        <v>339.46</v>
+        <v>339.57</v>
       </c>
       <c r="D137" t="n">
         <v>345.15</v>
@@ -3329,7 +3329,7 @@
         <v>326.72</v>
       </c>
       <c r="C138" t="n">
-        <v>335.01</v>
+        <v>335.05</v>
       </c>
       <c r="D138" t="n">
         <v>336.11</v>
@@ -3350,7 +3350,7 @@
         <v>333.93</v>
       </c>
       <c r="C139" t="n">
-        <v>337.14</v>
+        <v>337.13</v>
       </c>
       <c r="D139" t="n">
         <v>338.61</v>
@@ -3371,7 +3371,7 @@
         <v>334.61</v>
       </c>
       <c r="C140" t="n">
-        <v>335.44</v>
+        <v>335.42</v>
       </c>
       <c r="D140" t="n">
         <v>338.32</v>
@@ -3392,7 +3392,7 @@
         <v>333.19</v>
       </c>
       <c r="C141" t="n">
-        <v>333.2</v>
+        <v>333.18</v>
       </c>
       <c r="D141" t="n">
         <v>336.48</v>
@@ -3413,7 +3413,7 @@
         <v>332.76</v>
       </c>
       <c r="C142" t="n">
-        <v>330.36</v>
+        <v>330.32</v>
       </c>
       <c r="D142" t="n">
         <v>338.18</v>
@@ -3434,7 +3434,7 @@
         <v>332.76</v>
       </c>
       <c r="C143" t="n">
-        <v>329.87</v>
+        <v>329.81</v>
       </c>
       <c r="D143" t="n">
         <v>337.55</v>
@@ -3455,7 +3455,7 @@
         <v>331.92</v>
       </c>
       <c r="C144" t="n">
-        <v>330.4</v>
+        <v>330.34</v>
       </c>
       <c r="D144" t="n">
         <v>339.38</v>
@@ -3476,7 +3476,7 @@
         <v>326.09</v>
       </c>
       <c r="C145" t="n">
-        <v>328.08</v>
+        <v>328.03</v>
       </c>
       <c r="D145" t="n">
         <v>337.68</v>
@@ -3497,7 +3497,7 @@
         <v>322.93</v>
       </c>
       <c r="C146" t="n">
-        <v>327.52</v>
+        <v>327.47</v>
       </c>
       <c r="D146" t="n">
         <v>337.72</v>
@@ -3518,7 +3518,7 @@
         <v>322.15</v>
       </c>
       <c r="C147" t="n">
-        <v>328.76</v>
+        <v>328.75</v>
       </c>
       <c r="D147" t="n">
         <v>338.95</v>
@@ -3539,7 +3539,7 @@
         <v>322.59</v>
       </c>
       <c r="C148" t="n">
-        <v>327.87</v>
+        <v>327.84</v>
       </c>
       <c r="D148" t="n">
         <v>337.21</v>
@@ -3560,7 +3560,7 @@
         <v>320.29</v>
       </c>
       <c r="C149" t="n">
-        <v>328.91</v>
+        <v>328.92</v>
       </c>
       <c r="D149" t="n">
         <v>337.98</v>
@@ -3602,7 +3602,7 @@
         <v>323.71</v>
       </c>
       <c r="C151" t="n">
-        <v>330.87</v>
+        <v>330.86</v>
       </c>
       <c r="D151" t="n">
         <v>338.02</v>
@@ -3623,7 +3623,7 @@
         <v>321.31</v>
       </c>
       <c r="C152" t="n">
-        <v>330.87</v>
+        <v>330.86</v>
       </c>
       <c r="D152" t="n">
         <v>335.23</v>
@@ -3644,7 +3644,7 @@
         <v>322.37</v>
       </c>
       <c r="C153" t="n">
-        <v>331.57</v>
+        <v>331.56</v>
       </c>
       <c r="D153" t="n">
         <v>335.51</v>
@@ -3686,7 +3686,7 @@
         <v>323.83</v>
       </c>
       <c r="C155" t="n">
-        <v>331.74</v>
+        <v>331.73</v>
       </c>
       <c r="D155" t="n">
         <v>334.23</v>
@@ -3707,7 +3707,7 @@
         <v>325.55</v>
       </c>
       <c r="C156" t="n">
-        <v>331.99</v>
+        <v>331.97</v>
       </c>
       <c r="D156" t="n">
         <v>334.6</v>
@@ -3728,7 +3728,7 @@
         <v>326.4</v>
       </c>
       <c r="C157" t="n">
-        <v>332.25</v>
+        <v>332.23</v>
       </c>
       <c r="D157" t="n">
         <v>335.12</v>
@@ -3749,7 +3749,7 @@
         <v>325.71</v>
       </c>
       <c r="C158" t="n">
-        <v>332.61</v>
+        <v>332.6</v>
       </c>
       <c r="D158" t="n">
         <v>335.17</v>
@@ -3791,7 +3791,7 @@
         <v>325.74</v>
       </c>
       <c r="C160" t="n">
-        <v>333.69</v>
+        <v>333.7</v>
       </c>
       <c r="D160" t="n">
         <v>335.83</v>
@@ -3812,7 +3812,7 @@
         <v>325.96</v>
       </c>
       <c r="C161" t="n">
-        <v>333.61</v>
+        <v>333.62</v>
       </c>
       <c r="D161" t="n">
         <v>335.46</v>
@@ -3833,7 +3833,7 @@
         <v>326.68</v>
       </c>
       <c r="C162" t="n">
-        <v>334.15</v>
+        <v>334.16</v>
       </c>
       <c r="D162" t="n">
         <v>336.68</v>
@@ -3875,7 +3875,7 @@
         <v>328.14</v>
       </c>
       <c r="C164" t="n">
-        <v>333.22</v>
+        <v>333.21</v>
       </c>
       <c r="D164" t="n">
         <v>334.69</v>
@@ -3896,7 +3896,7 @@
         <v>328.21</v>
       </c>
       <c r="C165" t="n">
-        <v>333.88</v>
+        <v>333.87</v>
       </c>
       <c r="D165" t="n">
         <v>335.86</v>
@@ -3917,7 +3917,7 @@
         <v>330.04</v>
       </c>
       <c r="C166" t="n">
-        <v>334.45</v>
+        <v>334.44</v>
       </c>
       <c r="D166" t="n">
         <v>339.67</v>
@@ -3938,7 +3938,7 @@
         <v>327.9</v>
       </c>
       <c r="C167" t="n">
-        <v>334.73</v>
+        <v>334.74</v>
       </c>
       <c r="D167" t="n">
         <v>340.13</v>
@@ -3959,7 +3959,7 @@
         <v>324.34</v>
       </c>
       <c r="C168" t="n">
-        <v>333.68</v>
+        <v>333.72</v>
       </c>
       <c r="D168" t="n">
         <v>338.4</v>
@@ -3980,7 +3980,7 @@
         <v>323.75</v>
       </c>
       <c r="C169" t="n">
-        <v>333.42</v>
+        <v>333.46</v>
       </c>
       <c r="D169" t="n">
         <v>339.4</v>
@@ -4001,7 +4001,7 @@
         <v>324.29</v>
       </c>
       <c r="C170" t="n">
-        <v>332.28</v>
+        <v>332.3</v>
       </c>
       <c r="D170" t="n">
         <v>339.37</v>
@@ -4043,7 +4043,7 @@
         <v>323.97</v>
       </c>
       <c r="C172" t="n">
-        <v>335.3</v>
+        <v>335.33</v>
       </c>
       <c r="D172" t="n">
         <v>342.08</v>
@@ -4064,7 +4064,7 @@
         <v>323.97</v>
       </c>
       <c r="C173" t="n">
-        <v>336.09</v>
+        <v>336.11</v>
       </c>
       <c r="D173" t="n">
         <v>340.95</v>
@@ -4085,7 +4085,7 @@
         <v>323.55</v>
       </c>
       <c r="C174" t="n">
-        <v>337.39</v>
+        <v>337.43</v>
       </c>
       <c r="D174" t="n">
         <v>343.76</v>
@@ -4106,7 +4106,7 @@
         <v>322.14</v>
       </c>
       <c r="C175" t="n">
-        <v>337.35</v>
+        <v>337.41</v>
       </c>
       <c r="D175" t="n">
         <v>343.84</v>
@@ -4127,7 +4127,7 @@
         <v>322.57</v>
       </c>
       <c r="C176" t="n">
-        <v>335.8</v>
+        <v>335.85</v>
       </c>
       <c r="D176" t="n">
         <v>341.12</v>
@@ -4148,7 +4148,7 @@
         <v>323.9</v>
       </c>
       <c r="C177" t="n">
-        <v>335.94</v>
+        <v>335.99</v>
       </c>
       <c r="D177" t="n">
         <v>341.07</v>
@@ -4169,7 +4169,7 @@
         <v>325.2</v>
       </c>
       <c r="C178" t="n">
-        <v>336.65</v>
+        <v>336.7</v>
       </c>
       <c r="D178" t="n">
         <v>341.92</v>
@@ -4190,7 +4190,7 @@
         <v>325.39</v>
       </c>
       <c r="C179" t="n">
-        <v>336.49</v>
+        <v>336.54</v>
       </c>
       <c r="D179" t="n">
         <v>341.92</v>
@@ -4211,7 +4211,7 @@
         <v>329.32</v>
       </c>
       <c r="C180" t="n">
-        <v>337.77</v>
+        <v>337.82</v>
       </c>
       <c r="D180" t="n">
         <v>342.47</v>
@@ -4232,7 +4232,7 @@
         <v>329.32</v>
       </c>
       <c r="C181" t="n">
-        <v>337.77</v>
+        <v>337.82</v>
       </c>
       <c r="D181" t="n">
         <v>344.55</v>
@@ -4253,7 +4253,7 @@
         <v>330.05</v>
       </c>
       <c r="C182" t="n">
-        <v>337.13</v>
+        <v>337.16</v>
       </c>
       <c r="D182" t="n">
         <v>343.98</v>
@@ -4274,7 +4274,7 @@
         <v>330.05</v>
       </c>
       <c r="C183" t="n">
-        <v>337.13</v>
+        <v>337.16</v>
       </c>
       <c r="D183" t="n">
         <v>344.63</v>
@@ -4295,7 +4295,7 @@
         <v>330.22</v>
       </c>
       <c r="C184" t="n">
-        <v>337.23</v>
+        <v>337.26</v>
       </c>
       <c r="D184" t="n">
         <v>344.66</v>
@@ -4316,7 +4316,7 @@
         <v>330.74</v>
       </c>
       <c r="C185" t="n">
-        <v>337.52</v>
+        <v>337.55</v>
       </c>
       <c r="D185" t="n">
         <v>344.65</v>
@@ -4337,7 +4337,7 @@
         <v>330.81</v>
       </c>
       <c r="C186" t="n">
-        <v>336.6</v>
+        <v>336.62</v>
       </c>
       <c r="D186" t="n">
         <v>344.65</v>
@@ -4358,7 +4358,7 @@
         <v>333.08</v>
       </c>
       <c r="C187" t="n">
-        <v>336.78</v>
+        <v>336.79</v>
       </c>
       <c r="D187" t="n">
         <v>345.1</v>
@@ -4379,7 +4379,7 @@
         <v>332.83</v>
       </c>
       <c r="C188" t="n">
-        <v>337.11</v>
+        <v>337.14</v>
       </c>
       <c r="D188" t="n">
         <v>346.9</v>
@@ -4400,7 +4400,7 @@
         <v>332.56</v>
       </c>
       <c r="C189" t="n">
-        <v>335.54</v>
+        <v>335.56</v>
       </c>
       <c r="D189" t="n">
         <v>344.79</v>
@@ -4421,7 +4421,7 @@
         <v>331.07</v>
       </c>
       <c r="C190" t="n">
-        <v>334.97</v>
+        <v>334.99</v>
       </c>
       <c r="D190" t="n">
         <v>343.95</v>
@@ -4442,7 +4442,7 @@
         <v>331.52</v>
       </c>
       <c r="C191" t="n">
-        <v>334.02</v>
+        <v>334.03</v>
       </c>
       <c r="D191" t="n">
         <v>342.73</v>
@@ -4526,7 +4526,7 @@
         <v>329.97</v>
       </c>
       <c r="C195" t="n">
-        <v>331.76</v>
+        <v>331.75</v>
       </c>
       <c r="D195" t="n">
         <v>340.72</v>
@@ -4547,7 +4547,7 @@
         <v>329.83</v>
       </c>
       <c r="C196" t="n">
-        <v>331.83</v>
+        <v>331.82</v>
       </c>
       <c r="D196" t="n">
         <v>340.05</v>
@@ -4610,7 +4610,7 @@
         <v>327.83</v>
       </c>
       <c r="C199" t="n">
-        <v>331.82</v>
+        <v>331.83</v>
       </c>
       <c r="D199" t="n">
         <v>338.87</v>
@@ -4652,7 +4652,7 @@
         <v>324.52</v>
       </c>
       <c r="C201" t="n">
-        <v>329.47</v>
+        <v>329.48</v>
       </c>
       <c r="D201" t="n">
         <v>334.83</v>
@@ -4715,7 +4715,7 @@
         <v>324.89</v>
       </c>
       <c r="C204" t="n">
-        <v>329.43</v>
+        <v>329.44</v>
       </c>
       <c r="D204" t="n">
         <v>334.35</v>
@@ -4778,7 +4778,7 @@
         <v>323.58</v>
       </c>
       <c r="C207" t="n">
-        <v>329</v>
+        <v>329.01</v>
       </c>
       <c r="D207" t="n">
         <v>333.76</v>
@@ -4799,7 +4799,7 @@
         <v>323.22</v>
       </c>
       <c r="C208" t="n">
-        <v>329.03</v>
+        <v>329.04</v>
       </c>
       <c r="D208" t="n">
         <v>334</v>
@@ -4862,7 +4862,7 @@
         <v>322.33</v>
       </c>
       <c r="C211" t="n">
-        <v>327.26</v>
+        <v>327.25</v>
       </c>
       <c r="D211" t="n">
         <v>331.84</v>
@@ -4925,7 +4925,7 @@
         <v>322.4</v>
       </c>
       <c r="C214" t="n">
-        <v>326.23</v>
+        <v>326.21</v>
       </c>
       <c r="D214" t="n">
         <v>330.67</v>
@@ -4946,7 +4946,7 @@
         <v>328.38</v>
       </c>
       <c r="C215" t="n">
-        <v>329.75</v>
+        <v>329.71</v>
       </c>
       <c r="D215" t="n">
         <v>332.84</v>
@@ -4967,7 +4967,7 @@
         <v>328.33</v>
       </c>
       <c r="C216" t="n">
-        <v>330.45</v>
+        <v>330.43</v>
       </c>
       <c r="D216" t="n">
         <v>333.04</v>
@@ -4988,7 +4988,7 @@
         <v>328.59</v>
       </c>
       <c r="C217" t="n">
-        <v>331.65</v>
+        <v>331.63</v>
       </c>
       <c r="D217" t="n">
         <v>335</v>
@@ -5009,7 +5009,7 @@
         <v>333.8</v>
       </c>
       <c r="C218" t="n">
-        <v>334.37</v>
+        <v>334.34</v>
       </c>
       <c r="D218" t="n">
         <v>337.12</v>
@@ -5030,7 +5030,7 @@
         <v>332.25</v>
       </c>
       <c r="C219" t="n">
-        <v>333.34</v>
+        <v>333.31</v>
       </c>
       <c r="D219" t="n">
         <v>335.66</v>
@@ -5051,7 +5051,7 @@
         <v>331.42</v>
       </c>
       <c r="C220" t="n">
-        <v>332.14</v>
+        <v>332.1</v>
       </c>
       <c r="D220" t="n">
         <v>334.53</v>
@@ -5072,7 +5072,7 @@
         <v>332.57</v>
       </c>
       <c r="C221" t="n">
-        <v>333.69</v>
+        <v>333.65</v>
       </c>
       <c r="D221" t="n">
         <v>336.73</v>
@@ -5093,7 +5093,7 @@
         <v>333.94</v>
       </c>
       <c r="C222" t="n">
-        <v>334.2</v>
+        <v>334.16</v>
       </c>
       <c r="D222" t="n">
         <v>337.93</v>
@@ -5114,7 +5114,7 @@
         <v>333.74</v>
       </c>
       <c r="C223" t="n">
-        <v>334.53</v>
+        <v>334.48</v>
       </c>
       <c r="D223" t="n">
         <v>338.87</v>
@@ -5135,7 +5135,7 @@
         <v>332.75</v>
       </c>
       <c r="C224" t="n">
-        <v>335.02</v>
+        <v>334.97</v>
       </c>
       <c r="D224" t="n">
         <v>339.03</v>
@@ -5156,7 +5156,7 @@
         <v>332.21</v>
       </c>
       <c r="C225" t="n">
-        <v>334.24</v>
+        <v>334.19</v>
       </c>
       <c r="D225" t="n">
         <v>338.29</v>
@@ -5177,7 +5177,7 @@
         <v>329.8</v>
       </c>
       <c r="C226" t="n">
-        <v>334.48</v>
+        <v>334.46</v>
       </c>
       <c r="D226" t="n">
         <v>339.8</v>
@@ -5198,7 +5198,7 @@
         <v>329.8</v>
       </c>
       <c r="C227" t="n">
-        <v>334.48</v>
+        <v>334.46</v>
       </c>
       <c r="D227" t="n">
         <v>339.99</v>
@@ -5219,7 +5219,7 @@
         <v>329.72</v>
       </c>
       <c r="C228" t="n">
-        <v>334.06</v>
+        <v>334.03</v>
       </c>
       <c r="D228" t="n">
         <v>339.95</v>
@@ -5240,7 +5240,7 @@
         <v>327.44</v>
       </c>
       <c r="C229" t="n">
-        <v>331.5</v>
+        <v>331.46</v>
       </c>
       <c r="D229" t="n">
         <v>338.75</v>
@@ -5261,7 +5261,7 @@
         <v>327.04</v>
       </c>
       <c r="C230" t="n">
-        <v>331.21</v>
+        <v>331.17</v>
       </c>
       <c r="D230" t="n">
         <v>338.06</v>
@@ -5282,7 +5282,7 @@
         <v>326.46</v>
       </c>
       <c r="C231" t="n">
-        <v>331.43</v>
+        <v>331.39</v>
       </c>
       <c r="D231" t="n">
         <v>338.38</v>
@@ -5303,7 +5303,7 @@
         <v>326.82</v>
       </c>
       <c r="C232" t="n">
-        <v>332.16</v>
+        <v>332.12</v>
       </c>
       <c r="D232" t="n">
         <v>338.38</v>
@@ -5324,7 +5324,7 @@
         <v>324.96</v>
       </c>
       <c r="C233" t="n">
-        <v>331.8</v>
+        <v>331.78</v>
       </c>
       <c r="D233" t="n">
         <v>337.97</v>
@@ -5345,7 +5345,7 @@
         <v>321.97</v>
       </c>
       <c r="C234" t="n">
-        <v>332.78</v>
+        <v>332.76</v>
       </c>
       <c r="D234" t="n">
         <v>339.36</v>
@@ -5366,7 +5366,7 @@
         <v>322.48</v>
       </c>
       <c r="C235" t="n">
-        <v>332.03</v>
+        <v>332</v>
       </c>
       <c r="D235" t="n">
         <v>337.78</v>
@@ -5450,7 +5450,7 @@
         <v>317.39</v>
       </c>
       <c r="C239" t="n">
-        <v>328.04</v>
+        <v>328.05</v>
       </c>
       <c r="D239" t="n">
         <v>332.93</v>
@@ -5471,7 +5471,7 @@
         <v>317.21</v>
       </c>
       <c r="C240" t="n">
-        <v>326.2</v>
+        <v>326.24</v>
       </c>
       <c r="D240" t="n">
         <v>332.89</v>
@@ -5492,7 +5492,7 @@
         <v>319.94</v>
       </c>
       <c r="C241" t="n">
-        <v>325.63</v>
+        <v>325.66</v>
       </c>
       <c r="D241" t="n">
         <v>332.26</v>
@@ -5513,7 +5513,7 @@
         <v>323.37</v>
       </c>
       <c r="C242" t="n">
-        <v>328.03</v>
+        <v>328.05</v>
       </c>
       <c r="D242" t="n">
         <v>334.27</v>
@@ -5534,7 +5534,7 @@
         <v>324.57</v>
       </c>
       <c r="C243" t="n">
-        <v>329.12</v>
+        <v>329.14</v>
       </c>
       <c r="D243" t="n">
         <v>335.44</v>
@@ -5555,7 +5555,7 @@
         <v>328.54</v>
       </c>
       <c r="C244" t="n">
-        <v>328.1</v>
+        <v>328.12</v>
       </c>
       <c r="D244" t="n">
         <v>334.27</v>
@@ -5576,7 +5576,7 @@
         <v>329.33</v>
       </c>
       <c r="C245" t="n">
-        <v>328.83</v>
+        <v>328.85</v>
       </c>
       <c r="D245" t="n">
         <v>336.2</v>
@@ -5618,7 +5618,7 @@
         <v>330.26</v>
       </c>
       <c r="C247" t="n">
-        <v>329.47</v>
+        <v>329.46</v>
       </c>
       <c r="D247" t="n">
         <v>335.39</v>
@@ -5702,7 +5702,7 @@
         <v>328.1</v>
       </c>
       <c r="C251" t="n">
-        <v>332.36</v>
+        <v>332.37</v>
       </c>
       <c r="D251" t="n">
         <v>337.45</v>
@@ -5723,7 +5723,7 @@
         <v>325.66</v>
       </c>
       <c r="C252" t="n">
-        <v>331.76</v>
+        <v>331.78</v>
       </c>
       <c r="D252" t="n">
         <v>336.18</v>
@@ -5744,7 +5744,7 @@
         <v>327.43</v>
       </c>
       <c r="C253" t="n">
-        <v>332.8</v>
+        <v>332.81</v>
       </c>
       <c r="D253" t="n">
         <v>337.37</v>
@@ -5765,7 +5765,7 @@
         <v>327.43</v>
       </c>
       <c r="C254" t="n">
-        <v>332.8</v>
+        <v>332.81</v>
       </c>
       <c r="D254" t="n">
         <v>334.61</v>
@@ -5786,7 +5786,7 @@
         <v>327.77</v>
       </c>
       <c r="C255" t="n">
-        <v>333.09</v>
+        <v>333.1</v>
       </c>
       <c r="D255" t="n">
         <v>335.33</v>
@@ -5828,7 +5828,7 @@
         <v>325.76</v>
       </c>
       <c r="C257" t="n">
-        <v>334.09</v>
+        <v>334.07</v>
       </c>
       <c r="D257" t="n">
         <v>334.54</v>
@@ -5849,7 +5849,7 @@
         <v>323.67</v>
       </c>
       <c r="C258" t="n">
-        <v>334.79</v>
+        <v>334.78</v>
       </c>
       <c r="D258" t="n">
         <v>335.01</v>
@@ -5891,7 +5891,7 @@
         <v>326.82</v>
       </c>
       <c r="C260" t="n">
-        <v>335.14</v>
+        <v>335.13</v>
       </c>
       <c r="D260" t="n">
         <v>334.52</v>
@@ -5912,7 +5912,7 @@
         <v>327.32</v>
       </c>
       <c r="C261" t="n">
-        <v>334.48</v>
+        <v>334.49</v>
       </c>
       <c r="D261" t="n">
         <v>340.91</v>
@@ -5933,7 +5933,7 @@
         <v>328.37</v>
       </c>
       <c r="C262" t="n">
-        <v>334.52</v>
+        <v>334.51</v>
       </c>
       <c r="D262" t="n">
         <v>340.6</v>
@@ -5996,7 +5996,7 @@
         <v>329.16</v>
       </c>
       <c r="C265" t="n">
-        <v>332.92</v>
+        <v>332.93</v>
       </c>
       <c r="D265" t="n">
         <v>340.02</v>
@@ -6017,7 +6017,7 @@
         <v>328.35</v>
       </c>
       <c r="C266" t="n">
-        <v>332.1</v>
+        <v>332.11</v>
       </c>
       <c r="D266" t="n">
         <v>338.44</v>
@@ -6038,7 +6038,7 @@
         <v>324.88</v>
       </c>
       <c r="C267" t="n">
-        <v>331.01</v>
+        <v>331.04</v>
       </c>
       <c r="D267" t="n">
         <v>337.08</v>
@@ -6059,7 +6059,7 @@
         <v>323.56</v>
       </c>
       <c r="C268" t="n">
-        <v>330.74</v>
+        <v>330.78</v>
       </c>
       <c r="D268" t="n">
         <v>337.22</v>
@@ -6080,7 +6080,7 @@
         <v>324.38</v>
       </c>
       <c r="C269" t="n">
-        <v>331.23</v>
+        <v>331.26</v>
       </c>
       <c r="D269" t="n">
         <v>336.96</v>
@@ -6101,7 +6101,7 @@
         <v>324.38</v>
       </c>
       <c r="C270" t="n">
-        <v>331.23</v>
+        <v>331.26</v>
       </c>
       <c r="D270" t="n">
         <v>336.08</v>
@@ -6122,7 +6122,7 @@
         <v>324</v>
       </c>
       <c r="C271" t="n">
-        <v>331.41</v>
+        <v>331.44</v>
       </c>
       <c r="D271" t="n">
         <v>336.39</v>
@@ -6143,7 +6143,7 @@
         <v>322.98</v>
       </c>
       <c r="C272" t="n">
-        <v>330.26</v>
+        <v>330.29</v>
       </c>
       <c r="D272" t="n">
         <v>335.56</v>
@@ -6164,7 +6164,7 @@
         <v>318.68</v>
       </c>
       <c r="C273" t="n">
-        <v>327.02</v>
+        <v>327.04</v>
       </c>
       <c r="D273" t="n">
         <v>333.6</v>
@@ -6185,7 +6185,7 @@
         <v>317.83</v>
       </c>
       <c r="C274" t="n">
-        <v>327.02</v>
+        <v>327.04</v>
       </c>
       <c r="D274" t="n">
         <v>332.72</v>
@@ -6206,7 +6206,7 @@
         <v>318.04</v>
       </c>
       <c r="C275" t="n">
-        <v>326.48</v>
+        <v>326.5</v>
       </c>
       <c r="D275" t="n">
         <v>331.85</v>
@@ -6227,7 +6227,7 @@
         <v>317.18</v>
       </c>
       <c r="C276" t="n">
-        <v>326.76</v>
+        <v>326.79</v>
       </c>
       <c r="D276" t="n">
         <v>332.31</v>
@@ -6248,7 +6248,7 @@
         <v>319.16</v>
       </c>
       <c r="C277" t="n">
-        <v>328.12</v>
+        <v>328.13</v>
       </c>
       <c r="D277" t="n">
         <v>333.16</v>
@@ -6269,7 +6269,7 @@
         <v>318.2</v>
       </c>
       <c r="C278" t="n">
-        <v>329.05</v>
+        <v>329.08</v>
       </c>
       <c r="D278" t="n">
         <v>334.42</v>
@@ -6290,7 +6290,7 @@
         <v>317.07</v>
       </c>
       <c r="C279" t="n">
-        <v>328.39</v>
+        <v>328.42</v>
       </c>
       <c r="D279" t="n">
         <v>334.02</v>
@@ -6311,7 +6311,7 @@
         <v>314.56</v>
       </c>
       <c r="C280" t="n">
-        <v>327.42</v>
+        <v>327.46</v>
       </c>
       <c r="D280" t="n">
         <v>331.39</v>
@@ -6332,7 +6332,7 @@
         <v>314.83</v>
       </c>
       <c r="C281" t="n">
-        <v>327.76</v>
+        <v>327.8</v>
       </c>
       <c r="D281" t="n">
         <v>331.75</v>
@@ -6353,7 +6353,7 @@
         <v>316.15</v>
       </c>
       <c r="C282" t="n">
-        <v>329.2</v>
+        <v>329.22</v>
       </c>
       <c r="D282" t="n">
         <v>332.95</v>
@@ -6374,7 +6374,7 @@
         <v>316.15</v>
       </c>
       <c r="C283" t="n">
-        <v>329.2</v>
+        <v>329.22</v>
       </c>
       <c r="D283" t="n">
         <v>332.97</v>
@@ -6416,7 +6416,7 @@
         <v>319.07</v>
       </c>
       <c r="C285" t="n">
-        <v>331.38</v>
+        <v>331.39</v>
       </c>
       <c r="D285" t="n">
         <v>335.08</v>
@@ -6458,7 +6458,7 @@
         <v>326.55</v>
       </c>
       <c r="C287" t="n">
-        <v>335.75</v>
+        <v>335.76</v>
       </c>
       <c r="D287" t="n">
         <v>338.39</v>
@@ -6500,7 +6500,7 @@
         <v>329.01</v>
       </c>
       <c r="C289" t="n">
-        <v>337.71</v>
+        <v>337.72</v>
       </c>
       <c r="D289" t="n">
         <v>339.57</v>
@@ -6521,7 +6521,7 @@
         <v>330.11</v>
       </c>
       <c r="C290" t="n">
-        <v>337.73</v>
+        <v>337.74</v>
       </c>
       <c r="D290" t="n">
         <v>338.97</v>
@@ -6542,7 +6542,7 @@
         <v>332.76</v>
       </c>
       <c r="C291" t="n">
-        <v>336.73</v>
+        <v>336.74</v>
       </c>
       <c r="D291" t="n">
         <v>337.29</v>
@@ -6563,7 +6563,7 @@
         <v>335.81</v>
       </c>
       <c r="C292" t="n">
-        <v>337.58</v>
+        <v>337.57</v>
       </c>
       <c r="D292" t="n">
         <v>338.56</v>
@@ -6584,7 +6584,7 @@
         <v>334.32</v>
       </c>
       <c r="C293" t="n">
-        <v>337.17</v>
+        <v>337.18</v>
       </c>
       <c r="D293" t="n">
         <v>339</v>
@@ -6605,7 +6605,7 @@
         <v>333.77</v>
       </c>
       <c r="C294" t="n">
-        <v>336.55</v>
+        <v>336.56</v>
       </c>
       <c r="D294" t="n">
         <v>338.79</v>
@@ -6647,7 +6647,7 @@
         <v>333.68</v>
       </c>
       <c r="C296" t="n">
-        <v>335.47</v>
+        <v>335.48</v>
       </c>
       <c r="D296" t="n">
         <v>338.46</v>
@@ -6668,7 +6668,7 @@
         <v>334.9</v>
       </c>
       <c r="C297" t="n">
-        <v>336.48</v>
+        <v>336.49</v>
       </c>
       <c r="D297" t="n">
         <v>340.94</v>
@@ -6689,7 +6689,7 @@
         <v>333.77</v>
       </c>
       <c r="C298" t="n">
-        <v>334.93</v>
+        <v>334.94</v>
       </c>
       <c r="D298" t="n">
         <v>339.85</v>
@@ -6710,7 +6710,7 @@
         <v>331.54</v>
       </c>
       <c r="C299" t="n">
-        <v>332.06</v>
+        <v>332.08</v>
       </c>
       <c r="D299" t="n">
         <v>338.13</v>
@@ -6731,7 +6731,7 @@
         <v>330.15</v>
       </c>
       <c r="C300" t="n">
-        <v>332.06</v>
+        <v>332.08</v>
       </c>
       <c r="D300" t="n">
         <v>338.13</v>
@@ -6752,7 +6752,7 @@
         <v>329.39</v>
       </c>
       <c r="C301" t="n">
-        <v>332.45</v>
+        <v>332.47</v>
       </c>
       <c r="D301" t="n">
         <v>338.47</v>
@@ -6773,7 +6773,7 @@
         <v>327.37</v>
       </c>
       <c r="C302" t="n">
-        <v>328.87</v>
+        <v>328.91</v>
       </c>
       <c r="D302" t="n">
         <v>338.91</v>
@@ -6794,7 +6794,7 @@
         <v>325.07</v>
       </c>
       <c r="C303" t="n">
-        <v>329.99</v>
+        <v>330.04</v>
       </c>
       <c r="D303" t="n">
         <v>339.8</v>
@@ -6815,7 +6815,7 @@
         <v>325.91</v>
       </c>
       <c r="C304" t="n">
-        <v>329.64</v>
+        <v>329.67</v>
       </c>
       <c r="D304" t="n">
         <v>339.42</v>
@@ -6836,7 +6836,7 @@
         <v>319.44</v>
       </c>
       <c r="C305" t="n">
-        <v>329.09</v>
+        <v>329.15</v>
       </c>
       <c r="D305" t="n">
         <v>338.89</v>
@@ -6857,7 +6857,7 @@
         <v>320.45</v>
       </c>
       <c r="C306" t="n">
-        <v>329.37</v>
+        <v>329.44</v>
       </c>
       <c r="D306" t="n">
         <v>338.6</v>
@@ -6878,7 +6878,7 @@
         <v>319.38</v>
       </c>
       <c r="C307" t="n">
-        <v>327.14</v>
+        <v>327.19</v>
       </c>
       <c r="D307" t="n">
         <v>335.65</v>
@@ -6899,7 +6899,7 @@
         <v>319.38</v>
       </c>
       <c r="C308" t="n">
-        <v>327.14</v>
+        <v>327.19</v>
       </c>
       <c r="D308" t="n">
         <v>335.11</v>
@@ -6920,7 +6920,7 @@
         <v>320.58</v>
       </c>
       <c r="C309" t="n">
-        <v>327.41</v>
+        <v>327.46</v>
       </c>
       <c r="D309" t="n">
         <v>334.77</v>
@@ -6941,7 +6941,7 @@
         <v>320.97</v>
       </c>
       <c r="C310" t="n">
-        <v>329.57</v>
+        <v>329.62</v>
       </c>
       <c r="D310" t="n">
         <v>336.57</v>
@@ -6962,7 +6962,7 @@
         <v>322.1</v>
       </c>
       <c r="C311" t="n">
-        <v>330.98</v>
+        <v>331.04</v>
       </c>
       <c r="D311" t="n">
         <v>337.46</v>
@@ -6983,7 +6983,7 @@
         <v>326.35</v>
       </c>
       <c r="C312" t="n">
-        <v>330.98</v>
+        <v>331.04</v>
       </c>
       <c r="D312" t="n">
         <v>337.46</v>
@@ -7004,7 +7004,7 @@
         <v>326.83</v>
       </c>
       <c r="C313" t="n">
-        <v>332.4</v>
+        <v>332.47</v>
       </c>
       <c r="D313" t="n">
         <v>338.99</v>
@@ -7025,7 +7025,7 @@
         <v>327.6</v>
       </c>
       <c r="C314" t="n">
-        <v>332.11</v>
+        <v>332.17</v>
       </c>
       <c r="D314" t="n">
         <v>339.17</v>
@@ -7046,7 +7046,7 @@
         <v>330.55</v>
       </c>
       <c r="C315" t="n">
-        <v>331.49</v>
+        <v>331.54</v>
       </c>
       <c r="D315" t="n">
         <v>338.92</v>
@@ -7067,7 +7067,7 @@
         <v>329.94</v>
       </c>
       <c r="C316" t="n">
-        <v>330.66</v>
+        <v>330.71</v>
       </c>
       <c r="D316" t="n">
         <v>337.96</v>
@@ -7088,7 +7088,7 @@
         <v>329.76</v>
       </c>
       <c r="C317" t="n">
-        <v>330.43</v>
+        <v>330.48</v>
       </c>
       <c r="D317" t="n">
         <v>337.24</v>
@@ -7109,7 +7109,7 @@
         <v>330.94</v>
       </c>
       <c r="C318" t="n">
-        <v>332.65</v>
+        <v>332.68</v>
       </c>
       <c r="D318" t="n">
         <v>337.32</v>
@@ -7130,7 +7130,7 @@
         <v>330.25</v>
       </c>
       <c r="C319" t="n">
-        <v>332.35</v>
+        <v>332.39</v>
       </c>
       <c r="D319" t="n">
         <v>336.61</v>
@@ -7151,7 +7151,7 @@
         <v>329.3</v>
       </c>
       <c r="C320" t="n">
-        <v>332.31</v>
+        <v>332.35</v>
       </c>
       <c r="D320" t="n">
         <v>336.2</v>
@@ -7172,7 +7172,7 @@
         <v>327.45</v>
       </c>
       <c r="C321" t="n">
-        <v>330.79</v>
+        <v>330.83</v>
       </c>
       <c r="D321" t="n">
         <v>335.01</v>
@@ -7193,7 +7193,7 @@
         <v>329.47</v>
       </c>
       <c r="C322" t="n">
-        <v>330.83</v>
+        <v>330.86</v>
       </c>
       <c r="D322" t="n">
         <v>334.89</v>
@@ -7214,7 +7214,7 @@
         <v>329.92</v>
       </c>
       <c r="C323" t="n">
-        <v>331.01</v>
+        <v>331.03</v>
       </c>
       <c r="D323" t="n">
         <v>335.4</v>
@@ -7235,7 +7235,7 @@
         <v>329.33</v>
       </c>
       <c r="C324" t="n">
-        <v>331.2</v>
+        <v>331.24</v>
       </c>
       <c r="D324" t="n">
         <v>336.41</v>
@@ -7256,7 +7256,7 @@
         <v>328.74</v>
       </c>
       <c r="C325" t="n">
-        <v>330.98</v>
+        <v>331.01</v>
       </c>
       <c r="D325" t="n">
         <v>336.66</v>
@@ -7277,7 +7277,7 @@
         <v>328.74</v>
       </c>
       <c r="C326" t="n">
-        <v>330.98</v>
+        <v>331.01</v>
       </c>
       <c r="D326" t="n">
         <v>336.09</v>
@@ -7298,7 +7298,7 @@
         <v>328.86</v>
       </c>
       <c r="C327" t="n">
-        <v>330.14</v>
+        <v>330.17</v>
       </c>
       <c r="D327" t="n">
         <v>335.28</v>
@@ -7319,7 +7319,7 @@
         <v>329</v>
       </c>
       <c r="C328" t="n">
-        <v>329.64</v>
+        <v>329.66</v>
       </c>
       <c r="D328" t="n">
         <v>335.01</v>
@@ -7361,7 +7361,7 @@
         <v>324.26</v>
       </c>
       <c r="C330" t="n">
-        <v>328.95</v>
+        <v>328.96</v>
       </c>
       <c r="D330" t="n">
         <v>333.48</v>
@@ -7382,7 +7382,7 @@
         <v>323.39</v>
       </c>
       <c r="C331" t="n">
-        <v>328.98</v>
+        <v>329</v>
       </c>
       <c r="D331" t="n">
         <v>333.73</v>
@@ -7403,7 +7403,7 @@
         <v>322.07</v>
       </c>
       <c r="C332" t="n">
-        <v>329.48</v>
+        <v>329.5</v>
       </c>
       <c r="D332" t="n">
         <v>334.13</v>
@@ -7424,7 +7424,7 @@
         <v>323.48</v>
       </c>
       <c r="C333" t="n">
-        <v>328.99</v>
+        <v>329.01</v>
       </c>
       <c r="D333" t="n">
         <v>333.82</v>
@@ -7445,7 +7445,7 @@
         <v>323.8</v>
       </c>
       <c r="C334" t="n">
-        <v>329.03</v>
+        <v>329.05</v>
       </c>
       <c r="D334" t="n">
         <v>334.43</v>
@@ -7466,7 +7466,7 @@
         <v>324.35</v>
       </c>
       <c r="C335" t="n">
-        <v>329.64</v>
+        <v>329.65</v>
       </c>
       <c r="D335" t="n">
         <v>334.48</v>
@@ -7487,7 +7487,7 @@
         <v>324.95</v>
       </c>
       <c r="C336" t="n">
-        <v>329.16</v>
+        <v>329.15</v>
       </c>
       <c r="D336" t="n">
         <v>335.07</v>
@@ -7508,7 +7508,7 @@
         <v>326.8</v>
       </c>
       <c r="C337" t="n">
-        <v>329.8</v>
+        <v>329.77</v>
       </c>
       <c r="D337" t="n">
         <v>335.28</v>
@@ -7529,7 +7529,7 @@
         <v>325.56</v>
       </c>
       <c r="C338" t="n">
-        <v>331.09</v>
+        <v>331.05</v>
       </c>
       <c r="D338" t="n">
         <v>335.5</v>
@@ -7550,7 +7550,7 @@
         <v>326.88</v>
       </c>
       <c r="C339" t="n">
-        <v>331.61</v>
+        <v>331.57</v>
       </c>
       <c r="D339" t="n">
         <v>336.41</v>
@@ -7571,7 +7571,7 @@
         <v>327.06</v>
       </c>
       <c r="C340" t="n">
-        <v>332.47</v>
+        <v>332.45</v>
       </c>
       <c r="D340" t="n">
         <v>337.47</v>
@@ -7592,7 +7592,7 @@
         <v>327.76</v>
       </c>
       <c r="C341" t="n">
-        <v>331.4</v>
+        <v>331.36</v>
       </c>
       <c r="D341" t="n">
         <v>336.45</v>
@@ -7613,7 +7613,7 @@
         <v>334.35</v>
       </c>
       <c r="C342" t="n">
-        <v>331.52</v>
+        <v>331.46</v>
       </c>
       <c r="D342" t="n">
         <v>335.4</v>
@@ -7634,7 +7634,7 @@
         <v>335.66</v>
       </c>
       <c r="C343" t="n">
-        <v>332.35</v>
+        <v>332.28</v>
       </c>
       <c r="D343" t="n">
         <v>336.67</v>
@@ -7655,7 +7655,7 @@
         <v>332.6</v>
       </c>
       <c r="C344" t="n">
-        <v>330.62</v>
+        <v>330.55</v>
       </c>
       <c r="D344" t="n">
         <v>335.88</v>
@@ -7676,7 +7676,7 @@
         <v>327.4</v>
       </c>
       <c r="C345" t="n">
-        <v>332.41</v>
+        <v>332.36</v>
       </c>
       <c r="D345" t="n">
         <v>336.66</v>
@@ -7697,7 +7697,7 @@
         <v>329.18</v>
       </c>
       <c r="C346" t="n">
-        <v>332.41</v>
+        <v>332.36</v>
       </c>
       <c r="D346" t="n">
         <v>336.66</v>
@@ -7718,7 +7718,7 @@
         <v>328.86</v>
       </c>
       <c r="C347" t="n">
-        <v>331.44</v>
+        <v>331.38</v>
       </c>
       <c r="D347" t="n">
         <v>335.42</v>
@@ -7739,7 +7739,7 @@
         <v>328.59</v>
       </c>
       <c r="C348" t="n">
-        <v>330.57</v>
+        <v>330.53</v>
       </c>
       <c r="D348" t="n">
         <v>335.36</v>
@@ -7760,7 +7760,7 @@
         <v>327.76</v>
       </c>
       <c r="C349" t="n">
-        <v>331.68</v>
+        <v>331.67</v>
       </c>
       <c r="D349" t="n">
         <v>335.77</v>
@@ -7781,7 +7781,7 @@
         <v>327.43</v>
       </c>
       <c r="C350" t="n">
-        <v>331.62</v>
+        <v>331.61</v>
       </c>
       <c r="D350" t="n">
         <v>335.94</v>
@@ -7802,7 +7802,7 @@
         <v>328.55</v>
       </c>
       <c r="C351" t="n">
-        <v>331.58</v>
+        <v>331.57</v>
       </c>
       <c r="D351" t="n">
         <v>335.77</v>
@@ -7823,7 +7823,7 @@
         <v>328.67</v>
       </c>
       <c r="C352" t="n">
-        <v>331.58</v>
+        <v>331.57</v>
       </c>
       <c r="D352" t="n">
         <v>335.77</v>
@@ -7844,7 +7844,7 @@
         <v>326.64</v>
       </c>
       <c r="C353" t="n">
-        <v>328.74</v>
+        <v>328.73</v>
       </c>
       <c r="D353" t="n">
         <v>335.25</v>
@@ -7865,7 +7865,7 @@
         <v>316.93</v>
       </c>
       <c r="C354" t="n">
-        <v>325.3</v>
+        <v>325.35</v>
       </c>
       <c r="D354" t="n">
         <v>332.46</v>
@@ -7886,7 +7886,7 @@
         <v>316.28</v>
       </c>
       <c r="C355" t="n">
-        <v>325.97</v>
+        <v>326.03</v>
       </c>
       <c r="D355" t="n">
         <v>332.55</v>
@@ -7907,7 +7907,7 @@
         <v>315.69</v>
       </c>
       <c r="C356" t="n">
-        <v>323.13</v>
+        <v>323.18</v>
       </c>
       <c r="D356" t="n">
         <v>331.97</v>
@@ -7928,7 +7928,7 @@
         <v>315.52</v>
       </c>
       <c r="C357" t="n">
-        <v>323.49</v>
+        <v>323.54</v>
       </c>
       <c r="D357" t="n">
         <v>331.64</v>
@@ -7949,7 +7949,7 @@
         <v>314.87</v>
       </c>
       <c r="C358" t="n">
-        <v>324.02</v>
+        <v>324.07</v>
       </c>
       <c r="D358" t="n">
         <v>331.96</v>
@@ -7970,7 +7970,7 @@
         <v>312.29</v>
       </c>
       <c r="C359" t="n">
-        <v>323.91</v>
+        <v>323.96</v>
       </c>
       <c r="D359" t="n">
         <v>331.79</v>
@@ -7991,7 +7991,7 @@
         <v>315.03</v>
       </c>
       <c r="C360" t="n">
-        <v>324.17</v>
+        <v>324.21</v>
       </c>
       <c r="D360" t="n">
         <v>331.79</v>
@@ -8012,7 +8012,7 @@
         <v>310.99</v>
       </c>
       <c r="C361" t="n">
-        <v>323.48</v>
+        <v>323.53</v>
       </c>
       <c r="D361" t="n">
         <v>331.95</v>
@@ -8033,7 +8033,7 @@
         <v>311.44</v>
       </c>
       <c r="C362" t="n">
-        <v>322.08</v>
+        <v>322.12</v>
       </c>
       <c r="D362" t="n">
         <v>330.21</v>
@@ -8054,7 +8054,7 @@
         <v>312.52</v>
       </c>
       <c r="C363" t="n">
-        <v>323.78</v>
+        <v>323.83</v>
       </c>
       <c r="D363" t="n">
         <v>332.05</v>
@@ -8075,7 +8075,7 @@
         <v>312.52</v>
       </c>
       <c r="C364" t="n">
-        <v>323.78</v>
+        <v>323.83</v>
       </c>
       <c r="D364" t="n">
         <v>333.28</v>
@@ -8096,7 +8096,7 @@
         <v>312.88</v>
       </c>
       <c r="C365" t="n">
-        <v>323.94</v>
+        <v>323.98</v>
       </c>
       <c r="D365" t="n">
         <v>333.8</v>
@@ -8117,7 +8117,7 @@
         <v>310.38</v>
       </c>
       <c r="C366" t="n">
-        <v>326.62</v>
+        <v>326.67</v>
       </c>
       <c r="D366" t="n">
         <v>334.69</v>
@@ -8138,7 +8138,7 @@
         <v>311.69</v>
       </c>
       <c r="C367" t="n">
-        <v>327.36</v>
+        <v>327.41</v>
       </c>
       <c r="D367" t="n">
         <v>335.57</v>
@@ -8159,7 +8159,7 @@
         <v>314.8</v>
       </c>
       <c r="C368" t="n">
-        <v>327.54</v>
+        <v>327.58</v>
       </c>
       <c r="D368" t="n">
         <v>334.42</v>
@@ -8180,7 +8180,7 @@
         <v>316.66</v>
       </c>
       <c r="C369" t="n">
-        <v>328.06</v>
+        <v>328.09</v>
       </c>
       <c r="D369" t="n">
         <v>334.22</v>
@@ -8201,7 +8201,7 @@
         <v>318.14</v>
       </c>
       <c r="C370" t="n">
-        <v>328.48</v>
+        <v>328.5</v>
       </c>
       <c r="D370" t="n">
         <v>334.08</v>
@@ -8222,7 +8222,7 @@
         <v>318.82</v>
       </c>
       <c r="C371" t="n">
-        <v>329.52</v>
+        <v>329.55</v>
       </c>
       <c r="D371" t="n">
         <v>335.02</v>
@@ -8243,7 +8243,7 @@
         <v>320.08</v>
       </c>
       <c r="C372" t="n">
-        <v>331.76</v>
+        <v>331.78</v>
       </c>
       <c r="D372" t="n">
         <v>335.53</v>
@@ -8264,7 +8264,7 @@
         <v>321.39</v>
       </c>
       <c r="C373" t="n">
-        <v>332.57</v>
+        <v>332.59</v>
       </c>
       <c r="D373" t="n">
         <v>336.29</v>
@@ -8285,7 +8285,7 @@
         <v>322.86</v>
       </c>
       <c r="C374" t="n">
-        <v>333.1</v>
+        <v>333.12</v>
       </c>
       <c r="D374" t="n">
         <v>337.25</v>
@@ -8306,7 +8306,7 @@
         <v>322.56</v>
       </c>
       <c r="C375" t="n">
-        <v>333.1</v>
+        <v>333.12</v>
       </c>
       <c r="D375" t="n">
         <v>337.25</v>
@@ -8327,7 +8327,7 @@
         <v>324.77</v>
       </c>
       <c r="C376" t="n">
-        <v>334.53</v>
+        <v>334.56</v>
       </c>
       <c r="D376" t="n">
         <v>338.64</v>
@@ -8348,7 +8348,7 @@
         <v>328.08</v>
       </c>
       <c r="C377" t="n">
-        <v>335.53</v>
+        <v>335.54</v>
       </c>
       <c r="D377" t="n">
         <v>339.06</v>
@@ -8369,7 +8369,7 @@
         <v>328.43</v>
       </c>
       <c r="C378" t="n">
-        <v>335.66</v>
+        <v>335.67</v>
       </c>
       <c r="D378" t="n">
         <v>339.04</v>
@@ -8390,7 +8390,7 @@
         <v>327.38</v>
       </c>
       <c r="C379" t="n">
-        <v>335.59</v>
+        <v>335.62</v>
       </c>
       <c r="D379" t="n">
         <v>338.65</v>
@@ -8411,7 +8411,7 @@
         <v>329.2</v>
       </c>
       <c r="C380" t="n">
-        <v>336.97</v>
+        <v>336.99</v>
       </c>
       <c r="D380" t="n">
         <v>336.88</v>
@@ -8432,7 +8432,7 @@
         <v>328.69</v>
       </c>
       <c r="C381" t="n">
-        <v>337.9</v>
+        <v>337.94</v>
       </c>
       <c r="D381" t="n">
         <v>337.43</v>
@@ -8453,7 +8453,7 @@
         <v>327.91</v>
       </c>
       <c r="C382" t="n">
-        <v>337.56</v>
+        <v>337.61</v>
       </c>
       <c r="D382" t="n">
         <v>337.43</v>
@@ -8474,7 +8474,7 @@
         <v>327.12</v>
       </c>
       <c r="C383" t="n">
-        <v>335.39</v>
+        <v>335.42</v>
       </c>
       <c r="D383" t="n">
         <v>334.27</v>
@@ -8495,7 +8495,7 @@
         <v>326.58</v>
       </c>
       <c r="C384" t="n">
-        <v>335.11</v>
+        <v>335.15</v>
       </c>
       <c r="D384" t="n">
         <v>334.1</v>
@@ -8516,7 +8516,7 @@
         <v>325.67</v>
       </c>
       <c r="C385" t="n">
-        <v>333.82</v>
+        <v>333.85</v>
       </c>
       <c r="D385" t="n">
         <v>332.97</v>
@@ -8537,7 +8537,7 @@
         <v>325.11</v>
       </c>
       <c r="C386" t="n">
-        <v>333.06</v>
+        <v>333.1</v>
       </c>
       <c r="D386" t="n">
         <v>332.76</v>
@@ -8558,7 +8558,7 @@
         <v>325.14</v>
       </c>
       <c r="C387" t="n">
-        <v>333.06</v>
+        <v>333.09</v>
       </c>
       <c r="D387" t="n">
         <v>333.18</v>
@@ -8579,7 +8579,7 @@
         <v>323.36</v>
       </c>
       <c r="C388" t="n">
-        <v>331.93</v>
+        <v>331.98</v>
       </c>
       <c r="D388" t="n">
         <v>332.68</v>
@@ -8600,7 +8600,7 @@
         <v>322.96</v>
       </c>
       <c r="C389" t="n">
-        <v>330.78</v>
+        <v>330.81</v>
       </c>
       <c r="D389" t="n">
         <v>331.52</v>
@@ -8621,7 +8621,7 @@
         <v>322.2</v>
       </c>
       <c r="C390" t="n">
-        <v>330.52</v>
+        <v>330.56</v>
       </c>
       <c r="D390" t="n">
         <v>331.46</v>
@@ -8642,7 +8642,7 @@
         <v>317.29</v>
       </c>
       <c r="C391" t="n">
-        <v>329.36</v>
+        <v>329.41</v>
       </c>
       <c r="D391" t="n">
         <v>329.4</v>
@@ -8663,7 +8663,7 @@
         <v>316.01</v>
       </c>
       <c r="C392" t="n">
-        <v>329.16</v>
+        <v>329.21</v>
       </c>
       <c r="D392" t="n">
         <v>329.67</v>
@@ -8684,7 +8684,7 @@
         <v>315.23</v>
       </c>
       <c r="C393" t="n">
-        <v>328.95</v>
+        <v>329</v>
       </c>
       <c r="D393" t="n">
         <v>329.33</v>
@@ -8705,7 +8705,7 @@
         <v>314.65</v>
       </c>
       <c r="C394" t="n">
-        <v>328.91</v>
+        <v>328.96</v>
       </c>
       <c r="D394" t="n">
         <v>329.71</v>
@@ -8726,7 +8726,7 @@
         <v>314.01</v>
       </c>
       <c r="C395" t="n">
-        <v>329.13</v>
+        <v>329.17</v>
       </c>
       <c r="D395" t="n">
         <v>330.06</v>
@@ -8747,7 +8747,7 @@
         <v>314.71</v>
       </c>
       <c r="C396" t="n">
-        <v>330.07</v>
+        <v>330.13</v>
       </c>
       <c r="D396" t="n">
         <v>334.22</v>
@@ -8768,7 +8768,7 @@
         <v>315.88</v>
       </c>
       <c r="C397" t="n">
-        <v>330.9</v>
+        <v>330.94</v>
       </c>
       <c r="D397" t="n">
         <v>336.51</v>
@@ -8810,7 +8810,7 @@
         <v>319.92</v>
       </c>
       <c r="C399" t="n">
-        <v>335.39</v>
+        <v>335.41</v>
       </c>
       <c r="D399" t="n">
         <v>342.08</v>
@@ -8852,7 +8852,7 @@
         <v>324.67</v>
       </c>
       <c r="C401" t="n">
-        <v>331.08</v>
+        <v>331.1</v>
       </c>
       <c r="D401" t="n">
         <v>337.72</v>
@@ -8915,7 +8915,7 @@
         <v>328.7</v>
       </c>
       <c r="C404" t="n">
-        <v>330.1</v>
+        <v>330.09</v>
       </c>
       <c r="D404" t="n">
         <v>334.68</v>
@@ -8936,7 +8936,7 @@
         <v>327.04</v>
       </c>
       <c r="C405" t="n">
-        <v>329.96</v>
+        <v>329.95</v>
       </c>
       <c r="D405" t="n">
         <v>334.33</v>
@@ -8978,7 +8978,7 @@
         <v>331.19</v>
       </c>
       <c r="C407" t="n">
-        <v>328.01</v>
+        <v>328</v>
       </c>
       <c r="D407" t="n">
         <v>330.56</v>
@@ -8999,7 +8999,7 @@
         <v>330.88</v>
       </c>
       <c r="C408" t="n">
-        <v>328.46</v>
+        <v>328.44</v>
       </c>
       <c r="D408" t="n">
         <v>330.79</v>
@@ -9062,7 +9062,7 @@
         <v>328.22</v>
       </c>
       <c r="C411" t="n">
-        <v>329.74</v>
+        <v>329.75</v>
       </c>
       <c r="D411" t="n">
         <v>332.97</v>
@@ -9104,7 +9104,7 @@
         <v>328.06</v>
       </c>
       <c r="C413" t="n">
-        <v>331.17</v>
+        <v>331.18</v>
       </c>
       <c r="D413" t="n">
         <v>334.05</v>
@@ -9125,7 +9125,7 @@
         <v>327.36</v>
       </c>
       <c r="C414" t="n">
-        <v>331.03</v>
+        <v>331.05</v>
       </c>
       <c r="D414" t="n">
         <v>334.96</v>
@@ -9146,7 +9146,7 @@
         <v>327.5</v>
       </c>
       <c r="C415" t="n">
-        <v>330.89</v>
+        <v>330.91</v>
       </c>
       <c r="D415" t="n">
         <v>335.02</v>
@@ -9167,7 +9167,7 @@
         <v>325.09</v>
       </c>
       <c r="C416" t="n">
-        <v>330.89</v>
+        <v>330.91</v>
       </c>
       <c r="D416" t="n">
         <v>335.02</v>
@@ -9188,7 +9188,7 @@
         <v>324.24</v>
       </c>
       <c r="C417" t="n">
-        <v>330.71</v>
+        <v>330.73</v>
       </c>
       <c r="D417" t="n">
         <v>334.96</v>
@@ -9209,7 +9209,7 @@
         <v>323.83</v>
       </c>
       <c r="C418" t="n">
-        <v>330.25</v>
+        <v>330.26</v>
       </c>
       <c r="D418" t="n">
         <v>334.62</v>
@@ -9230,7 +9230,7 @@
         <v>323.42</v>
       </c>
       <c r="C419" t="n">
-        <v>330.41</v>
+        <v>330.43</v>
       </c>
       <c r="D419" t="n">
         <v>334.91</v>
@@ -9251,7 +9251,7 @@
         <v>323.7</v>
       </c>
       <c r="C420" t="n">
-        <v>330.68</v>
+        <v>330.69</v>
       </c>
       <c r="D420" t="n">
         <v>335.56</v>
@@ -9272,7 +9272,7 @@
         <v>322.01</v>
       </c>
       <c r="C421" t="n">
-        <v>330.61</v>
+        <v>330.63</v>
       </c>
       <c r="D421" t="n">
         <v>335.34</v>
@@ -9293,7 +9293,7 @@
         <v>321.62</v>
       </c>
       <c r="C422" t="n">
-        <v>329.51</v>
+        <v>329.53</v>
       </c>
       <c r="D422" t="n">
         <v>334.17</v>
@@ -9314,7 +9314,7 @@
         <v>321.12</v>
       </c>
       <c r="C423" t="n">
-        <v>331.25</v>
+        <v>331.27</v>
       </c>
       <c r="D423" t="n">
         <v>336</v>
@@ -9335,7 +9335,7 @@
         <v>320.51</v>
       </c>
       <c r="C424" t="n">
-        <v>331.21</v>
+        <v>331.23</v>
       </c>
       <c r="D424" t="n">
         <v>337.12</v>
@@ -9356,7 +9356,7 @@
         <v>320.22</v>
       </c>
       <c r="C425" t="n">
-        <v>331.02</v>
+        <v>331.04</v>
       </c>
       <c r="D425" t="n">
         <v>337.76</v>
@@ -9377,7 +9377,7 @@
         <v>320.22</v>
       </c>
       <c r="C426" t="n">
-        <v>329.9</v>
+        <v>329.92</v>
       </c>
       <c r="D426" t="n">
         <v>337.76</v>
@@ -9398,7 +9398,7 @@
         <v>317.05</v>
       </c>
       <c r="C427" t="n">
-        <v>329.01</v>
+        <v>329.04</v>
       </c>
       <c r="D427" t="n">
         <v>339.79</v>
@@ -9419,7 +9419,7 @@
         <v>315.48</v>
       </c>
       <c r="C428" t="n">
-        <v>329.39</v>
+        <v>329.43</v>
       </c>
       <c r="D428" t="n">
         <v>339.74</v>
@@ -9440,7 +9440,7 @@
         <v>320.15</v>
       </c>
       <c r="C429" t="n">
-        <v>329.7</v>
+        <v>329.72</v>
       </c>
       <c r="D429" t="n">
         <v>339.6</v>
@@ -9461,7 +9461,7 @@
         <v>319.92</v>
       </c>
       <c r="C430" t="n">
-        <v>330.35</v>
+        <v>330.39</v>
       </c>
       <c r="D430" t="n">
         <v>338.85</v>
@@ -9482,7 +9482,7 @@
         <v>322.05</v>
       </c>
       <c r="C431" t="n">
-        <v>331.91</v>
+        <v>331.96</v>
       </c>
       <c r="D431" t="n">
         <v>339.93</v>
@@ -9503,7 +9503,7 @@
         <v>324.26</v>
       </c>
       <c r="C432" t="n">
-        <v>332.75</v>
+        <v>332.78</v>
       </c>
       <c r="D432" t="n">
         <v>339.96</v>
@@ -9524,7 +9524,7 @@
         <v>328.53</v>
       </c>
       <c r="C433" t="n">
-        <v>334.7</v>
+        <v>334.74</v>
       </c>
       <c r="D433" t="n">
         <v>342.16</v>
@@ -9545,7 +9545,7 @@
         <v>328.87</v>
       </c>
       <c r="C434" t="n">
-        <v>334.49</v>
+        <v>334.52</v>
       </c>
       <c r="D434" t="n">
         <v>341.09</v>
@@ -9566,7 +9566,7 @@
         <v>328.2</v>
       </c>
       <c r="C435" t="n">
-        <v>333.28</v>
+        <v>333.32</v>
       </c>
       <c r="D435" t="n">
         <v>340.03</v>
@@ -9587,7 +9587,7 @@
         <v>329.39</v>
       </c>
       <c r="C436" t="n">
-        <v>336.28</v>
+        <v>336.3</v>
       </c>
       <c r="D436" t="n">
         <v>337.94</v>
@@ -9608,7 +9608,7 @@
         <v>329.75</v>
       </c>
       <c r="C437" t="n">
-        <v>336.68</v>
+        <v>336.7</v>
       </c>
       <c r="D437" t="n">
         <v>338.89</v>
@@ -9629,7 +9629,7 @@
         <v>328.71</v>
       </c>
       <c r="C438" t="n">
-        <v>336.26</v>
+        <v>336.28</v>
       </c>
       <c r="D438" t="n">
         <v>338.36</v>
@@ -9650,7 +9650,7 @@
         <v>331.04</v>
       </c>
       <c r="C439" t="n">
-        <v>336.6</v>
+        <v>336.61</v>
       </c>
       <c r="D439" t="n">
         <v>338.42</v>
@@ -9671,7 +9671,7 @@
         <v>328.9</v>
       </c>
       <c r="C440" t="n">
-        <v>335.4</v>
+        <v>335.42</v>
       </c>
       <c r="D440" t="n">
         <v>337.77</v>
@@ -9692,7 +9692,7 @@
         <v>327.89</v>
       </c>
       <c r="C441" t="n">
-        <v>335.63</v>
+        <v>335.66</v>
       </c>
       <c r="D441" t="n">
         <v>337.74</v>
@@ -9713,7 +9713,7 @@
         <v>328.09</v>
       </c>
       <c r="C442" t="n">
-        <v>335.55</v>
+        <v>335.57</v>
       </c>
       <c r="D442" t="n">
         <v>337.57</v>
@@ -9734,7 +9734,7 @@
         <v>326.86</v>
       </c>
       <c r="C443" t="n">
-        <v>335.16</v>
+        <v>335.18</v>
       </c>
       <c r="D443" t="n">
         <v>337.36</v>
@@ -9755,7 +9755,7 @@
         <v>326.01</v>
       </c>
       <c r="C444" t="n">
-        <v>334.33</v>
+        <v>334.35</v>
       </c>
       <c r="D444" t="n">
         <v>336.81</v>
@@ -9776,7 +9776,7 @@
         <v>324.37</v>
       </c>
       <c r="C445" t="n">
-        <v>333.49</v>
+        <v>333.5</v>
       </c>
       <c r="D445" t="n">
         <v>336.21</v>
@@ -9797,7 +9797,7 @@
         <v>321.66</v>
       </c>
       <c r="C446" t="n">
-        <v>331.27</v>
+        <v>331.29</v>
       </c>
       <c r="D446" t="n">
         <v>334.65</v>
@@ -9818,7 +9818,7 @@
         <v>320.87</v>
       </c>
       <c r="C447" t="n">
-        <v>331.29</v>
+        <v>331.32</v>
       </c>
       <c r="D447" t="n">
         <v>335.2</v>
@@ -9839,7 +9839,7 @@
         <v>321.38</v>
       </c>
       <c r="C448" t="n">
-        <v>331.29</v>
+        <v>331.32</v>
       </c>
       <c r="D448" t="n">
         <v>335.2</v>
@@ -9860,7 +9860,7 @@
         <v>321.1</v>
       </c>
       <c r="C449" t="n">
-        <v>331.72</v>
+        <v>331.74</v>
       </c>
       <c r="D449" t="n">
         <v>336.46</v>
@@ -9881,7 +9881,7 @@
         <v>318.98</v>
       </c>
       <c r="C450" t="n">
-        <v>330.68</v>
+        <v>330.71</v>
       </c>
       <c r="D450" t="n">
         <v>335.2</v>
@@ -9902,7 +9902,7 @@
         <v>319.57</v>
       </c>
       <c r="C451" t="n">
-        <v>330.76</v>
+        <v>330.78</v>
       </c>
       <c r="D451" t="n">
         <v>335.4</v>
@@ -9923,7 +9923,7 @@
         <v>320.71</v>
       </c>
       <c r="C452" t="n">
-        <v>330.53</v>
+        <v>330.54</v>
       </c>
       <c r="D452" t="n">
         <v>335.19</v>
@@ -9944,7 +9944,7 @@
         <v>319.81</v>
       </c>
       <c r="C453" t="n">
-        <v>329.59</v>
+        <v>329.6</v>
       </c>
       <c r="D453" t="n">
         <v>334.2</v>
@@ -9965,7 +9965,7 @@
         <v>319.1</v>
       </c>
       <c r="C454" t="n">
-        <v>330.12</v>
+        <v>330.15</v>
       </c>
       <c r="D454" t="n">
         <v>335.11</v>
@@ -9986,7 +9986,7 @@
         <v>319.4</v>
       </c>
       <c r="C455" t="n">
-        <v>329.31</v>
+        <v>329.35</v>
       </c>
       <c r="D455" t="n">
         <v>336.18</v>
@@ -10007,7 +10007,7 @@
         <v>322.11</v>
       </c>
       <c r="C456" t="n">
-        <v>329.86</v>
+        <v>329.88</v>
       </c>
       <c r="D456" t="n">
         <v>336.2</v>
@@ -10028,7 +10028,7 @@
         <v>324.95</v>
       </c>
       <c r="C457" t="n">
-        <v>332.48</v>
+        <v>332.51</v>
       </c>
       <c r="D457" t="n">
         <v>339.7</v>
@@ -10049,7 +10049,7 @@
         <v>327.98</v>
       </c>
       <c r="C458" t="n">
-        <v>332.16</v>
+        <v>332.17</v>
       </c>
       <c r="D458" t="n">
         <v>338.53</v>
@@ -10070,7 +10070,7 @@
         <v>327.88</v>
       </c>
       <c r="C459" t="n">
-        <v>332.16</v>
+        <v>332.17</v>
       </c>
       <c r="D459" t="n">
         <v>337.01</v>
@@ -10175,7 +10175,7 @@
         <v>331.13</v>
       </c>
       <c r="C464" t="n">
-        <v>334.1</v>
+        <v>334.09</v>
       </c>
       <c r="D464" t="n">
         <v>337.75</v>
@@ -10238,7 +10238,7 @@
         <v>331.93</v>
       </c>
       <c r="C467" t="n">
-        <v>336.65</v>
+        <v>336.63</v>
       </c>
       <c r="D467" t="n">
         <v>337.58</v>
@@ -10259,7 +10259,7 @@
         <v>331.27</v>
       </c>
       <c r="C468" t="n">
-        <v>336.41</v>
+        <v>336.39</v>
       </c>
       <c r="D468" t="n">
         <v>338.18</v>
@@ -10280,7 +10280,7 @@
         <v>330.03</v>
       </c>
       <c r="C469" t="n">
-        <v>336.51</v>
+        <v>336.5</v>
       </c>
       <c r="D469" t="n">
         <v>338.19</v>
@@ -10301,7 +10301,7 @@
         <v>328.24</v>
       </c>
       <c r="C470" t="n">
-        <v>334.47</v>
+        <v>334.45</v>
       </c>
       <c r="D470" t="n">
         <v>334.8</v>
@@ -10322,7 +10322,7 @@
         <v>327.81</v>
       </c>
       <c r="C471" t="n">
-        <v>334.39</v>
+        <v>334.37</v>
       </c>
       <c r="D471" t="n">
         <v>335.13</v>
@@ -10343,7 +10343,7 @@
         <v>326.57</v>
       </c>
       <c r="C472" t="n">
-        <v>333.84</v>
+        <v>333.82</v>
       </c>
       <c r="D472" t="n">
         <v>335.07</v>
@@ -10364,7 +10364,7 @@
         <v>325.2</v>
       </c>
       <c r="C473" t="n">
-        <v>332.33</v>
+        <v>332.31</v>
       </c>
       <c r="D473" t="n">
         <v>335.2</v>
@@ -10385,7 +10385,7 @@
         <v>325.06</v>
       </c>
       <c r="C474" t="n">
-        <v>332.28</v>
+        <v>332.27</v>
       </c>
       <c r="D474" t="n">
         <v>335.34</v>
@@ -10406,7 +10406,7 @@
         <v>325.3</v>
       </c>
       <c r="C475" t="n">
-        <v>331.95</v>
+        <v>331.94</v>
       </c>
       <c r="D475" t="n">
         <v>334.77</v>
@@ -10469,7 +10469,7 @@
         <v>326.7</v>
       </c>
       <c r="C478" t="n">
-        <v>332.2</v>
+        <v>332.19</v>
       </c>
       <c r="D478" t="n">
         <v>335.16</v>
@@ -10490,12 +10490,33 @@
         <v>329.04</v>
       </c>
       <c r="C479" t="n">
-        <v>332.02</v>
+        <v>331.99</v>
       </c>
       <c r="D479" t="n">
         <v>335.65</v>
       </c>
       <c r="E479" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:28+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>328.84</v>
+      </c>
+      <c r="C480" t="n">
+        <v>330.97</v>
+      </c>
+      <c r="D480" t="n">
+        <v>334.58</v>
+      </c>
+      <c r="E480" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10512,7 +10533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B641"/>
+  <dimension ref="A1:B642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16930,6 +16951,16 @@
       </c>
       <c r="B641" t="n">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -17097,34 +17128,34 @@
         <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0384</v>
+        <v>0.0385</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0752</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.07923590849840709</v>
+        <v>-0.07750520266270824</v>
       </c>
       <c r="J2" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K2" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009848454226105252</v>
+        <v>0.009458016817817216</v>
       </c>
       <c r="M2" t="n">
-        <v>4.4655533266297</v>
+        <v>4.463184673712485</v>
       </c>
       <c r="N2" t="n">
-        <v>29.87429265839978</v>
+        <v>29.84412796078757</v>
       </c>
       <c r="O2" t="n">
-        <v>5.46573807078237</v>
+        <v>5.462977938888969</v>
       </c>
       <c r="P2" t="n">
-        <v>326.9793986730069</v>
+        <v>326.9595231101049</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17172,37 +17203,37 @@
         <v>0.4987179437781449</v>
       </c>
       <c r="F3" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="G3" t="n">
-        <v>0.126</v>
+        <v>0.1269</v>
       </c>
       <c r="H3" t="n">
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07451303278355351</v>
+        <v>-0.07425362114548695</v>
       </c>
       <c r="J3" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K3" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02251662753193573</v>
+        <v>0.02248513102082483</v>
       </c>
       <c r="M3" t="n">
-        <v>2.671623474849739</v>
+        <v>2.666103388790587</v>
       </c>
       <c r="N3" t="n">
-        <v>11.40749963386466</v>
+        <v>11.37071045736758</v>
       </c>
       <c r="O3" t="n">
-        <v>3.377499020557173</v>
+        <v>3.372048406735523</v>
       </c>
       <c r="P3" t="n">
-        <v>333.3525811014463</v>
+        <v>333.357725620718</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17253,34 +17284,34 @@
         <v>0.185</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1307</v>
+        <v>0.1313</v>
       </c>
       <c r="H4" t="n">
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04142865907694901</v>
+        <v>-0.04215960555920822</v>
       </c>
       <c r="J4" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K4" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006319731945595986</v>
+        <v>0.006568971824468695</v>
       </c>
       <c r="M4" t="n">
-        <v>2.804166708084046</v>
+        <v>2.801431235132321</v>
       </c>
       <c r="N4" t="n">
-        <v>12.77231761957949</v>
+        <v>12.75139722160137</v>
       </c>
       <c r="O4" t="n">
-        <v>3.573837939747617</v>
+        <v>3.570909859069726</v>
       </c>
       <c r="P4" t="n">
-        <v>337.3287660910878</v>
+        <v>337.3371603383865</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17318,7 +17349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E479"/>
+  <dimension ref="A1:E480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17366,7 +17397,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-45.37257043431319,170.8652594364203</t>
+          <t>-45.372571208260155,170.8652603118484</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -17393,7 +17424,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-45.3725638205842,170.8652519554904</t>
+          <t>-45.37256367986655,170.86525179632173</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -17420,7 +17451,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-45.3725788773708,170.86526898654614</t>
+          <t>-45.372578525576735,170.86526858862416</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -17447,7 +17478,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-45.372605965508825,170.86529962655217</t>
+          <t>-45.372605684073676,170.8652993082143</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -17474,7 +17505,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-45.37260941308948,170.86530352619138</t>
+          <t>-45.372609202013116,170.86530328743797</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -17501,7 +17532,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-45.37265282445127,170.8653526298521</t>
+          <t>-45.372652894810024,170.8653527094367</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -17528,7 +17559,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-45.37262503273899,170.8653211939505</t>
+          <t>-45.37262496238021,170.86532111436597</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -17555,7 +17586,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-45.372640019157004,170.86533814545822</t>
+          <t>-45.37263987843948,170.8653379862891</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -17582,7 +17613,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-45.37263889341677,170.86533687210522</t>
+          <t>-45.372638823058,170.86533679252062</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -17609,7 +17640,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-45.372624540227555,170.86532063685885</t>
+          <t>-45.37262418843366,170.86532023893625</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -17636,7 +17667,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-45.37262615847939,170.8653224673029</t>
+          <t>-45.37262573632673,170.86532198979575</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -17663,7 +17694,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-45.37261532322743,170.8653102112883</t>
+          <t>-45.37261490107474,170.86530973378132</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -17690,7 +17721,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-45.372625947403066,170.8653222285493</t>
+          <t>-45.372625525250406,170.86532175104216</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -17717,7 +17748,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-45.37259344164338,170.86528546051977</t>
+          <t>-45.372593019490594,170.86528498301317</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -17744,7 +17775,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-45.37260730232585,170.86530113865712</t>
+          <t>-45.37260716160826,170.86530097948818</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -17771,7 +17802,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-45.372593230566984,170.86528522176647</t>
+          <t>-45.37259337128459,170.86528538093535</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -17798,7 +17829,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-45.37260097003461,170.86529397605537</t>
+          <t>-45.3726011107522,170.86529413522427</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -17825,7 +17856,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-45.37260842806645,170.8653024120087</t>
+          <t>-45.372608357707655,170.86530233242422</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -17852,7 +17883,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-45.37265599059518,170.8653562111593</t>
+          <t>-45.372656553465205,170.86535684783618</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -17879,7 +17910,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-45.372654864855136,170.8653549378056</t>
+          <t>-45.372655568442674,170.86535573365165</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -17906,7 +17937,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-45.37266767014738,170.86536942220704</t>
+          <t>-45.37266837373481,170.86537021805347</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -17933,7 +17964,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-45.37265387983259,170.86535382362112</t>
+          <t>-45.37265437234387,170.86535438071337</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -17960,7 +17991,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-45.3726394562869,170.8653375087817</t>
+          <t>-45.37263987843948,170.8653379862891</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -17987,7 +18018,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-45.37262468094512,170.8653207960279</t>
+          <t>-45.37262496238021,170.86532111436597</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -18014,7 +18045,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-45.372606669096726,170.86530042239687</t>
+          <t>-45.372607020890676,170.86530082031922</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -18041,7 +18072,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-45.37259104944417,170.86528275464914</t>
+          <t>-45.372591260520586,170.86528299340242</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -18068,7 +18099,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-45.37256797175457,170.8652566509675</t>
+          <t>-45.37256811247221,170.8652568101362</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -18095,7 +18126,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-45.372589782985756,170.86528132212948</t>
+          <t>-45.37258992370336,170.86528148129833</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -18122,7 +18153,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-45.37264979902476,170.8653492077145</t>
+          <t>-45.372650784047345,170.86535032189883</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -18149,7 +18180,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-45.372594285948985,170.865286415533</t>
+          <t>-45.37259463774297,170.86528681345519</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -18176,7 +18207,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-45.37262672134959,170.86532310397908</t>
+          <t>-45.372626791708356,170.86532318356362</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -18203,7 +18234,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-45.372609975959776,170.86530416286723</t>
+          <t>-45.3726098352422,170.86530400369827</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -18230,7 +18261,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-45.37259189374979,170.8652837096623</t>
+          <t>-45.372591823390984,170.86528363007784</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -18257,7 +18288,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-45.37260139218737,170.8652944535621</t>
+          <t>-45.37260132182858,170.86529437397763</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -18284,7 +18315,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-45.37259062729138,170.86528227714257</t>
+          <t>-45.372590275497366,170.86528187922045</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -18338,7 +18369,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-45.372619404036755,170.86531482718934</t>
+          <t>-45.37261947439555,170.86531490677385</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -18365,7 +18396,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-45.372619404036755,170.86531482718934</t>
+          <t>-45.37261947439555,170.86531490677385</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -18392,7 +18423,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-45.37264402960649,170.86534268177869</t>
+          <t>-45.37264395924773,170.8653426021941</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -18419,7 +18450,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-45.372636008707346,170.86533360913836</t>
+          <t>-45.37263614942489,170.86533376830747</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -18446,7 +18477,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-45.37262735457856,170.86532382023984</t>
+          <t>-45.372627636013654,170.86532413857796</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -18473,7 +18504,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-45.372646773598156,170.86534578557726</t>
+          <t>-45.372646984674425,170.86534602433102</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -18500,7 +18531,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-45.372646773598156,170.86534578557726</t>
+          <t>-45.372646984674425,170.86534602433102</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -18527,7 +18558,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-45.37265148763492,170.86535111774478</t>
+          <t>-45.37265162835243,170.86535127691394</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -18554,7 +18585,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-45.37266091570772,170.8653617820824</t>
+          <t>-45.37266105642524,170.86536194125162</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -18608,7 +18639,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-45.37266492615633,170.8653663184062</t>
+          <t>-45.372664996515084,170.86536639799084</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -18635,7 +18666,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-45.37270531206775,170.86541200001824</t>
+          <t>-45.37270503063287,170.86541168167926</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -18662,7 +18693,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-45.37268504875548,170.86538907961943</t>
+          <t>-45.37268490803802,170.86538892045004</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -18689,7 +18720,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-45.372653809473825,170.86535374403655</t>
+          <t>-45.37265373911507,170.86535366445193</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -18743,7 +18774,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-45.3726487436434,170.86534801394563</t>
+          <t>-45.37264895471968,170.86534825269942</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -18770,7 +18801,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-45.37265001010104,170.8653494464683</t>
+          <t>-45.37265036189482,170.86534984439126</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -18797,7 +18828,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-45.37265746812898,170.86535788243614</t>
+          <t>-45.37265781992273,170.8653582803592</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -18824,7 +18855,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-45.372651065482394,170.86535064023718</t>
+          <t>-45.37265120619989,170.86535079940637</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -18851,7 +18882,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-45.37262658063204,170.86532294481003</t>
+          <t>-45.3726269324259,170.86532334273267</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -18878,7 +18909,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-45.37262658063204,170.86532294481003</t>
+          <t>-45.3726269324259,170.86532334273267</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -18905,7 +18936,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-45.37263206861629,170.86532915240372</t>
+          <t>-45.37263256112769,170.8653297094955</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -18932,7 +18963,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-45.372650221177295,170.86534968522207</t>
+          <t>-45.3726507136886,170.8653502423142</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -18959,7 +18990,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-45.372637064088856,170.8653348029067</t>
+          <t>-45.37263762695899,170.86533543958313</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -18986,7 +19017,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-45.37265592023643,170.8653561315747</t>
+          <t>-45.372656060953936,170.8653562907439</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -19013,7 +19044,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-45.372627424937335,170.86532389982438</t>
+          <t>-45.37262749529609,170.8653239794089</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -19040,7 +19071,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-45.37261743399089,170.86531259882324</t>
+          <t>-45.372617363632116,170.86531251923873</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -19067,7 +19098,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-45.37263220933382,170.8653293115728</t>
+          <t>-45.37263235005136,170.86532947074187</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -19121,7 +19152,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-45.37261180528822,170.86530623206377</t>
+          <t>-45.3726119460058,170.86530639123276</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -19148,7 +19179,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-45.372609342730705,170.8653034466069</t>
+          <t>-45.37260955380706,170.86530368536037</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -19175,7 +19206,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-45.37262580668552,170.86532206938026</t>
+          <t>-45.37262587704429,170.86532214896476</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -19202,7 +19233,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-45.37262876175402,170.86532541193046</t>
+          <t>-45.3726288321128,170.86532549151497</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -19229,7 +19260,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-45.372638049111586,170.86533591709048</t>
+          <t>-45.37263797875281,170.86533583750594</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -19256,7 +19287,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-45.372640370950826,170.86533854338103</t>
+          <t>-45.37264051166835,170.86533870255016</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -19283,7 +19314,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-45.37263312399782,170.86533034617187</t>
+          <t>-45.37263333507415,170.8653305849255</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -19310,7 +19341,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-45.37264142633229,170.86533973714953</t>
+          <t>-45.37264156704982,170.86533989631866</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -19391,7 +19422,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-45.37266316718766,170.86536432879043</t>
+          <t>-45.37266281539393,170.8653639308673</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -19418,7 +19449,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-45.37264142633229,170.86533973714953</t>
+          <t>-45.37264135597353,170.86533965756496</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -19445,7 +19476,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-45.37263713444762,170.86533488249123</t>
+          <t>-45.372637275165154,170.86533504166033</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -19472,7 +19503,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-45.372645999651795,170.86534491014686</t>
+          <t>-45.37264621072808,170.8653451489006</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -19499,7 +19530,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-45.37262805816629,170.86532461608513</t>
+          <t>-45.372628409960164,170.8653250140078</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -19526,7 +19557,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-45.37265430198511,170.86535430112878</t>
+          <t>-45.37265458342012,170.86535461946718</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -19553,7 +19584,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-45.372654231626356,170.86535422154415</t>
+          <t>-45.37265437234387,170.86535438071337</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -19580,7 +19611,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-45.37265430198511,170.86535430112878</t>
+          <t>-45.37265437234387,170.86535438071337</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -19607,7 +19638,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-45.37265303552753,170.86535286860592</t>
+          <t>-45.37265317624505,170.86535302777511</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -19634,7 +19665,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-45.37267421351032,170.86537682357954</t>
+          <t>-45.37267435422779,170.86537698274887</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -19661,7 +19692,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-45.372675691043824,170.86537849485745</t>
+          <t>-45.37267562068507,170.86537841527277</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -19688,7 +19719,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-45.37267512817391,170.86537785818012</t>
+          <t>-45.37267505781518,170.86537777859544</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -19715,7 +19746,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-45.37265570916017,170.86535589282087</t>
+          <t>-45.372655568442674,170.86535573365165</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -19742,7 +19773,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-45.372649728666,170.8653491281299</t>
+          <t>-45.372649587948494,170.86534896896072</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -19769,7 +19800,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-45.37264592929303,170.8653448305623</t>
+          <t>-45.37264571821675,170.86534459180854</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -19796,7 +19827,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-45.37262439950999,170.8653204776898</t>
+          <t>-45.37262418843366,170.86532023893625</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -19850,7 +19881,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-45.37262496238021,170.86532111436597</t>
+          <t>-45.37262489202142,170.86532103478146</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -19877,7 +19908,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-45.372620881571116,170.865316498464</t>
+          <t>-45.37262095192991,170.86531657804855</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -19904,7 +19935,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-45.37264241135498,170.8653408513335</t>
+          <t>-45.37264304458383,170.86534156759464</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -19931,7 +19962,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-45.37265613131269,170.86535637032853</t>
+          <t>-45.372656553465205,170.86535684783618</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -19958,7 +19989,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-45.372662041447704,170.86536305543638</t>
+          <t>-45.37266239324144,170.86536345335952</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -19985,7 +20016,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-45.37266021212024,170.86536098623617</t>
+          <t>-45.37266035283775,170.86536114540542</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -20012,7 +20043,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-45.37266000104399,170.86536074748233</t>
+          <t>-45.37266021212024,170.86536098623617</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -20039,7 +20070,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-45.37268708915864,170.86539138757553</t>
+          <t>-45.372687229876114,170.86539154674492</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -20066,7 +20097,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-45.37268708915864,170.86539138757553</t>
+          <t>-45.372687229876114,170.86539154674492</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -20093,7 +20124,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-45.37268772238719,170.8653921038378</t>
+          <t>-45.37268779274593,170.8653921834225</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -20120,7 +20151,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-45.372669499474696,170.86537149140779</t>
+          <t>-45.37266928839846,170.86537125265386</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -20147,7 +20178,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-45.37269138104102,170.86539624224233</t>
+          <t>-45.37269131068229,170.86539616265762</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -20174,7 +20205,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-45.37269349180279,170.8653986297836</t>
+          <t>-45.37269321036788,170.86539831144478</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -20201,7 +20232,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-45.37265746812898,170.86535788243614</t>
+          <t>-45.372657186693964,170.86535756409768</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -20228,7 +20259,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-45.37265746812898,170.86535788243614</t>
+          <t>-45.372657186693964,170.86535756409768</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -20255,7 +20286,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-45.37266717763616,170.86536886511456</t>
+          <t>-45.372667247994904,170.8653689446992</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -20282,7 +20313,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-45.37265535736641,170.86535549489784</t>
+          <t>-45.37265507593141,170.86535517655943</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -20309,7 +20340,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-45.37267273597678,170.86537515230174</t>
+          <t>-45.37267266561804,170.8653750727171</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -20363,7 +20394,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-45.37266288575268,170.8653640104519</t>
+          <t>-45.372663096828916,170.86536424920578</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -20390,7 +20421,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-45.37260104039341,170.86529405563982</t>
+          <t>-45.37260097003461,170.86529397605537</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -20417,7 +20448,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-45.37261089062401,170.8653051974655</t>
+          <t>-45.37261103134158,170.86530535663445</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -20444,7 +20475,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-45.37261898188408,170.8653143496823</t>
+          <t>-45.372619192960414,170.86531458843584</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -20471,7 +20502,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-45.372630168929454,170.86532700362116</t>
+          <t>-45.37263023928824,170.86532708320567</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -20525,7 +20556,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-45.37265001010104,170.8653494464683</t>
+          <t>-45.372650150818544,170.86534960563748</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -20552,7 +20583,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-45.37265936781524,170.86536003122077</t>
+          <t>-45.37265943817399,170.86536011080537</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -20579,7 +20610,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-45.37266907732224,170.8653710138999</t>
+          <t>-45.372668866246,170.86537077514598</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -20606,7 +20637,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-45.372646984674425,170.86534602433102</t>
+          <t>-45.37264691431567,170.86534594474642</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -20633,7 +20664,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-45.37264550714047,170.86534435305478</t>
+          <t>-45.37264529606419,170.86534411430105</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -20660,7 +20691,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-45.37264494427039,170.8653437163782</t>
+          <t>-45.37264473319411,170.86534347762444</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -20687,7 +20718,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-45.37264494427039,170.8653437163782</t>
+          <t>-45.37264473319411,170.86534347762444</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -20714,7 +20745,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-45.37263699373008,170.86533472332212</t>
+          <t>-45.37263678265379,170.86533448456845</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -20741,7 +20772,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-45.37263699373008,170.86533472332212</t>
+          <t>-45.37263678265379,170.86533448456845</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -20768,7 +20799,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-45.37263699373008,170.86533472332212</t>
+          <t>-45.37263678265379,170.86533448456845</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -20795,7 +20826,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-45.37262798780751,170.86532453650062</t>
+          <t>-45.372627636013654,170.86532413857796</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -20822,7 +20853,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-45.37264290386631,170.86534140842548</t>
+          <t>-45.37264262243125,170.8653410900872</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -20849,7 +20880,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-45.37263235005136,170.86532947074187</t>
+          <t>-45.37263213897506,170.86532923198826</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -20876,7 +20907,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-45.372621163006244,170.86531681680208</t>
+          <t>-45.37262095192991,170.86531657804855</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -20903,7 +20934,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-45.372652754092506,170.86535255026752</t>
+          <t>-45.37265247265751,170.86535223192914</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -20930,7 +20961,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-45.37262109264747,170.86531673721754</t>
+          <t>-45.37262074085357,170.86531633929502</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -20957,7 +20988,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-45.37259337128459,170.86528538093535</t>
+          <t>-45.37259372307859,170.86528577885753</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -20984,7 +21015,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-45.37262383663978,170.86531984101364</t>
+          <t>-45.37262425879245,170.86532031852076</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -21011,7 +21042,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-45.37268054579659,170.8653839861997</t>
+          <t>-45.372681319742675,170.86538486163116</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -21038,7 +21069,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-45.37264923615469,170.8653485710378</t>
+          <t>-45.372649517589736,170.86534888937615</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -21065,7 +21096,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-45.372664222568865,170.86536552255987</t>
+          <t>-45.37266415221011,170.86536544297525</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -21092,7 +21123,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-45.37265226158122,170.86535199317532</t>
+          <t>-45.37265212086372,170.86535183400613</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -21119,7 +21150,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-45.37263650121872,170.86533416623024</t>
+          <t>-45.37263636050118,170.86533400706114</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -21146,7 +21177,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-45.37261651932675,170.86531156422475</t>
+          <t>-45.372616237891606,170.86531124588674</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -21173,7 +21204,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-45.37261307174634,170.86530766458452</t>
+          <t>-45.37261264959364,170.8653071870776</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -21200,7 +21231,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-45.372616800761854,170.86531188256274</t>
+          <t>-45.37261637860917,170.86531140505573</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -21227,7 +21258,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-45.37260047752306,170.86529341896417</t>
+          <t>-45.372600125729086,170.8652930210419</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -21254,7 +21285,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-45.37259653743051,170.86528896223507</t>
+          <t>-45.372596185636525,170.86528856431286</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -21281,7 +21312,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-45.37260526192093,170.8652988307075</t>
+          <t>-45.372605191562144,170.86529875112302</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -21308,7 +21339,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-45.37259899998838,170.8652917476907</t>
+          <t>-45.372598788911986,170.86529150893733</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -21335,7 +21366,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-45.372606317302775,170.86530002447452</t>
+          <t>-45.37260638766157,170.865300104059</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -21389,7 +21420,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-45.37262010762455,170.8653156230344</t>
+          <t>-45.37262003726577,170.8653155434499</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -21416,7 +21447,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-45.37262010762455,170.8653156230344</t>
+          <t>-45.37262003726577,170.8653155434499</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -21443,7 +21474,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-45.37262503273899,170.8653211939505</t>
+          <t>-45.37262496238021,170.86532111436597</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -21497,7 +21528,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-45.372626228838165,170.8653225468874</t>
+          <t>-45.37262615847939,170.8653224673029</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -21524,7 +21555,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-45.37262798780751,170.86532453650062</t>
+          <t>-45.372627847089966,170.86532437733155</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -21551,7 +21582,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-45.37262981713561,170.86532660569847</t>
+          <t>-45.37262967641806,170.8653264465294</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -21578,7 +21609,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-45.37263235005136,170.86532947074187</t>
+          <t>-45.3726322796926,170.86532939115736</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -21632,7 +21663,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-45.37263994879825,170.86533806587363</t>
+          <t>-45.372640019157004,170.86533814545822</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -21659,7 +21690,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-45.372639385928125,170.86533742919715</t>
+          <t>-45.3726394562869,170.8653375087817</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -21686,7 +21717,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-45.37264318530136,170.86534172676377</t>
+          <t>-45.372643255660115,170.86534180634834</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -21740,7 +21771,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-45.372636641936246,170.86533432539935</t>
+          <t>-45.37263657157748,170.8653342458148</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -21767,7 +21798,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-45.372641285614755,170.8653395779804</t>
+          <t>-45.372641215256,170.86533949839583</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -21794,7 +21825,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-45.37264529606419,170.86534411430105</t>
+          <t>-45.37264522570543,170.8653440347165</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -21821,7 +21852,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-45.372647266109475,170.86534634266934</t>
+          <t>-45.372647336468226,170.86534642225394</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -21848,7 +21879,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-45.37263987843948,170.8653379862891</t>
+          <t>-45.37264015987454,170.86533830462733</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -21875,7 +21906,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-45.372638049111586,170.86533591709048</t>
+          <t>-45.37263833054664,170.8653362354287</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -21902,7 +21933,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-45.37263002821192,170.86532684445208</t>
+          <t>-45.372630168929454,170.86532700362116</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -21956,7 +21987,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-45.37265127655864,170.865350878991</t>
+          <t>-45.37265148763492,170.86535111774478</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -21983,7 +22014,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-45.372656834900205,170.86535716617465</t>
+          <t>-45.372656975617716,170.86535732534384</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -22010,7 +22041,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-45.372665981537516,170.8653675121757</t>
+          <t>-45.37266626297249,170.86536783051426</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -22037,7 +22068,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-45.372665700102516,170.8653671938372</t>
+          <t>-45.372666122255,170.865367671345</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -22064,7 +22095,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-45.372654794496384,170.865354858221</t>
+          <t>-45.37265514629015,170.86535525614403</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -22091,7 +22122,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-45.37265577951892,170.8653559724055</t>
+          <t>-45.37265613131269,170.86535637032853</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -22118,7 +22149,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-45.372660774990244,170.86536162291316</t>
+          <t>-45.37266112678399,170.86536202083627</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -22145,7 +22176,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-45.372659649250245,170.8653603495592</t>
+          <t>-45.37266000104399,170.86536074748233</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -22172,7 +22203,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-45.372668655169775,170.86537053639205</t>
+          <t>-45.3726690069635,170.86537093431528</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -22199,7 +22230,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-45.372668655169775,170.86537053639205</t>
+          <t>-45.3726690069635,170.86537093431528</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -22226,7 +22257,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-45.37266415221011,170.86536544297525</t>
+          <t>-45.37266436328636,170.86536568172912</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -22253,7 +22284,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-45.37266415221011,170.86536544297525</t>
+          <t>-45.37266436328636,170.86536568172912</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -22280,7 +22311,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-45.372664855797574,170.86536623882157</t>
+          <t>-45.372665066873815,170.86536647757546</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -22307,7 +22338,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-45.37266689620119,170.865368546776</t>
+          <t>-45.372667107277415,170.8653687855299</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -22334,7 +22365,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-45.37266042319649,170.86536122499007</t>
+          <t>-45.37266056391398,170.86536138415929</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -22361,7 +22392,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-45.37266168965396,170.86536265751326</t>
+          <t>-45.37266176001272,170.86536273709788</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -22388,7 +22419,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-45.37266401149261,170.86536528380597</t>
+          <t>-45.372664222568865,170.86536552255987</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -22415,7 +22446,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-45.372652965168776,170.86535278902133</t>
+          <t>-45.372653105886286,170.86535294819052</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -22442,7 +22473,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-45.37264895471968,170.86534825269942</t>
+          <t>-45.37264909543718,170.8653484118686</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -22469,7 +22500,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-45.37264227063745,170.86534069216435</t>
+          <t>-45.372642340996215,170.86534077174892</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -22577,7 +22608,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-45.37262636955571,170.86532270605645</t>
+          <t>-45.37262629919694,170.86532262647194</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -22604,7 +22635,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-45.37262686206713,170.86532326314813</t>
+          <t>-45.372626791708356,170.86532318356362</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -22685,7 +22716,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-45.372626791708356,170.86532318356362</t>
+          <t>-45.37262686206713,170.86532326314813</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -22739,7 +22770,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-45.37261025739493,170.86530448120513</t>
+          <t>-45.37261032775371,170.86530456078964</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -22820,7 +22851,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-45.372609975959776,170.86530416286723</t>
+          <t>-45.37261004631857,170.8653042424517</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -22901,7 +22932,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-45.372606950531896,170.86530074073474</t>
+          <t>-45.372607020890676,170.86530082031922</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -22928,7 +22959,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-45.37260716160826,170.86530097948818</t>
+          <t>-45.37260723196705,170.86530105907264</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -23009,7 +23040,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-45.372594708101765,170.8652868930396</t>
+          <t>-45.37259463774297,170.86528681345519</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -23090,7 +23121,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-45.37258746114526,170.86527869584359</t>
+          <t>-45.37258732042765,170.86527853667474</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -23117,7 +23148,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-45.372612227440925,170.8653067095707</t>
+          <t>-45.3726119460058,170.86530639123276</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -23144,7 +23175,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-45.37261715255577,170.86531228048523</t>
+          <t>-45.372617011838216,170.86531212131624</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -23171,7 +23202,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-45.372625595609186,170.8653218306267</t>
+          <t>-45.37262545489163,170.86532167145765</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -23198,7 +23229,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-45.37264473319411,170.86534347762444</t>
+          <t>-45.372644522117824,170.8653432388707</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -23225,7 +23256,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-45.37263748624146,170.86533528041403</t>
+          <t>-45.372637275165154,170.86533504166033</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -23252,7 +23283,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-45.372629043189114,170.86532573026858</t>
+          <t>-45.37262876175402,170.86532541193046</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -23279,7 +23310,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-45.37263994879825,170.86533806587363</t>
+          <t>-45.37263966736318,170.86533774753536</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -23306,7 +23337,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-45.372643537095165,170.86534212468666</t>
+          <t>-45.372643255660115,170.86534180634834</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -23333,7 +23364,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-45.37264585893428,170.8653447509777</t>
+          <t>-45.37264550714047,170.86534435305478</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -23360,7 +23391,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-45.37264930651346,170.86534865062237</t>
+          <t>-45.37264895471968,170.86534825269942</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -23387,7 +23418,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-45.372643818530214,170.86534244302496</t>
+          <t>-45.37264346673639,170.8653420451021</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -23414,7 +23445,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-45.37264550714047,170.86534435305478</t>
+          <t>-45.37264536642296,170.86534419388565</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -23441,7 +23472,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-45.37264550714047,170.86534435305478</t>
+          <t>-45.37264536642296,170.86534419388565</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -23468,7 +23499,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-45.37264255207249,170.86534101050262</t>
+          <t>-45.372642340996215,170.86534077174892</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -23495,7 +23526,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-45.372624540227555,170.86532063685885</t>
+          <t>-45.37262425879245,170.86532031852076</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -23522,7 +23553,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-45.372622499823024,170.86531832890782</t>
+          <t>-45.372622218387924,170.86531801056975</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -23549,7 +23580,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-45.372624047716116,170.86532007976723</t>
+          <t>-45.372623766281016,170.86531976142913</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -23576,7 +23607,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-45.37262918390666,170.86532588943766</t>
+          <t>-45.37262890247156,170.86532557109953</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -23603,7 +23634,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-45.37262665099081,170.86532302439457</t>
+          <t>-45.372626510273264,170.86532286522552</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -23630,7 +23661,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-45.37263354615046,170.86533082367913</t>
+          <t>-45.372633405432914,170.86533066451005</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -23657,7 +23688,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-45.37262826924261,170.86532485483875</t>
+          <t>-45.37262805816629,170.86532461608513</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -23765,7 +23796,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-45.37260019608788,170.86529310062636</t>
+          <t>-45.372600266446675,170.8652931802108</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -23792,7 +23823,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-45.37258725006884,170.86527845709034</t>
+          <t>-45.37258753150405,170.865278775428</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -23819,7 +23850,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-45.37258323961692,170.8652739207789</t>
+          <t>-45.37258345069334,170.8652741595321</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -23846,7 +23877,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-45.372600125729086,170.8652930210419</t>
+          <t>-45.372600266446675,170.8652931802108</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -23873,7 +23904,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-45.372607794837364,170.86530169574843</t>
+          <t>-45.372607935554946,170.86530185491736</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -23900,7 +23931,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-45.37260061824065,170.86529357813308</t>
+          <t>-45.372600758958235,170.86529373730198</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -23927,7 +23958,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-45.37260575443247,170.86529938779876</t>
+          <t>-45.372605895150045,170.8652995469677</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -23981,7 +24012,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-45.37261025739493,170.86530448120513</t>
+          <t>-45.372610187036145,170.86530440162068</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -24089,7 +24120,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-45.372630591082114,170.86532748112836</t>
+          <t>-45.372630661440866,170.86532756071293</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -24116,7 +24147,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-45.37262636955571,170.86532270605645</t>
+          <t>-45.372626510273264,170.86532286522552</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -24143,7 +24174,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-45.37263368686799,170.86533098284823</t>
+          <t>-45.37263375722676,170.86533106243277</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -24170,7 +24201,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>-45.37263368686799,170.86533098284823</t>
+          <t>-45.37263375722676,170.86533106243277</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -24197,7 +24228,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>-45.372635727272275,170.86533329080015</t>
+          <t>-45.37263579763104,170.8653333703847</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -24251,7 +24282,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>-45.37264276314878,170.86534124925635</t>
+          <t>-45.37264262243125,170.8653410900872</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -24278,7 +24309,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-45.37264768826203,170.86534682017685</t>
+          <t>-45.372647617903255,170.86534674059226</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -24332,7 +24363,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-45.372650150818544,170.86534960563748</t>
+          <t>-45.37265008045978,170.86534952605288</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -24359,7 +24390,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-45.37264550714047,170.86534435305478</t>
+          <t>-45.37264557749924,170.86534443263938</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -24386,7 +24417,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>-45.372645788575525,170.86534467139313</t>
+          <t>-45.37264571821675,170.86534459180854</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -24467,7 +24498,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>-45.372634531173226,170.8653319378628</t>
+          <t>-45.372634601531985,170.86533201744734</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -24494,7 +24525,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>-45.37262876175402,170.86532541193046</t>
+          <t>-45.3726288321128,170.86532549151497</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -24521,7 +24552,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>-45.37262109264747,170.86531673721754</t>
+          <t>-45.37262130372379,170.8653169759711</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -24548,7 +24579,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>-45.372619192960414,170.86531458843584</t>
+          <t>-45.37261947439555,170.86531490677385</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -24575,7 +24606,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>-45.37262264054057,170.86531848807684</t>
+          <t>-45.37262285161692,170.8653187268304</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -24602,7 +24633,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>-45.37262264054057,170.86531848807684</t>
+          <t>-45.37262285161692,170.8653187268304</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -24629,7 +24660,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>-45.37262390699856,170.86531992059815</t>
+          <t>-45.37262411807489,170.8653201593517</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -24656,7 +24687,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-45.37261581573892,170.86531076837977</t>
+          <t>-45.37261602681526,170.86531100713327</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -24683,7 +24714,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>-45.372593019490594,170.86528498301317</t>
+          <t>-45.37259316020818,170.86528514218205</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -24710,7 +24741,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-45.372593019490594,170.86528498301317</t>
+          <t>-45.37259316020818,170.86528514218205</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -24737,7 +24768,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>-45.37258922011533,170.86528068545408</t>
+          <t>-45.37258936083294,170.86528084462293</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -24764,7 +24795,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>-45.37259119016179,170.865282913818</t>
+          <t>-45.37259140123818,170.86528315257127</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -24791,7 +24822,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>-45.372600758958235,170.86529373730198</t>
+          <t>-45.37260082931703,170.86529381688646</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -24818,7 +24849,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>-45.37260730232585,170.86530113865712</t>
+          <t>-45.3726075134022,170.86530137741053</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -24845,7 +24876,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>-45.37260265864565,170.86529588608232</t>
+          <t>-45.37260286972202,170.8652961248357</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -24872,7 +24903,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>-45.37259583384254,170.86528816639066</t>
+          <t>-45.37259611527772,170.8652884847284</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -24899,7 +24930,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>-45.372598226041625,170.86529087226177</t>
+          <t>-45.372598507476816,170.86529119059955</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -24926,7 +24957,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>-45.372608357707655,170.86530233242422</t>
+          <t>-45.37260849842524,170.86530249159318</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -24953,7 +24984,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>-45.372608357707655,170.86530233242422</t>
+          <t>-45.37260849842524,170.86530249159318</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -25007,7 +25038,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>-45.37262369592223,170.86531968184462</t>
+          <t>-45.372623766281016,170.86531976142913</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -25061,7 +25092,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>-45.37265444270262,170.86535446029797</t>
+          <t>-45.37265451306136,170.8653545398826</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -25115,7 +25146,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>-45.37266823301733,170.8653700588842</t>
+          <t>-45.37266830337607,170.86537013846882</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -25142,7 +25173,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>-45.37266837373481,170.86537021805347</t>
+          <t>-45.372668444093556,170.86537029763812</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -25169,7 +25200,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>-45.37266133786022,170.86536225959014</t>
+          <t>-45.372661408218974,170.86536233917477</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -25196,7 +25227,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>-45.372667318353656,170.86536902428386</t>
+          <t>-45.372667247994904,170.8653689446992</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -25223,7 +25254,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>-45.372664433645106,170.86536576131377</t>
+          <t>-45.37266450400385,170.8653658408984</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -25250,7 +25281,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-45.37266007140274,170.86536082706695</t>
+          <t>-45.372660141761486,170.86536090665157</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -25304,7 +25335,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>-45.37265247265751,170.86535223192914</t>
+          <t>-45.37265254301625,170.86535231151373</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -25331,7 +25362,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>-45.37265957889149,170.86536026997462</t>
+          <t>-45.372659649250245,170.8653603495592</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -25358,7 +25389,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>-45.37264867328463,170.86534793436107</t>
+          <t>-45.3726487436434,170.86534801394563</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -25385,7 +25416,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>-45.37262848031894,170.86532509359233</t>
+          <t>-45.37262862103647,170.8653252527614</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -25412,7 +25443,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>-45.37262848031894,170.86532509359233</t>
+          <t>-45.37262862103647,170.8653252527614</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -25439,7 +25470,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>-45.372631224311036,170.86532819738923</t>
+          <t>-45.37263136502858,170.8653283565583</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -25466,7 +25497,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>-45.372606035867626,170.86529970613665</t>
+          <t>-45.372606317302775,170.86530002447452</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -25493,7 +25524,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>-45.37261391605177,170.86530861959844</t>
+          <t>-45.372614267845684,170.8653090175209</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -25520,7 +25551,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>-45.372611453494294,170.86530583414134</t>
+          <t>-45.372611664570655,170.8653060728948</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -25547,7 +25578,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>-45.37260758376099,170.865301456995</t>
+          <t>-45.372608005913726,170.86530193450184</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -25574,7 +25605,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>-45.37260955380706,170.86530368536037</t>
+          <t>-45.37261004631857,170.8653042424517</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -25601,7 +25632,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>-45.37259386379618,170.8652859380264</t>
+          <t>-45.372594215590176,170.86528633594858</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -25628,7 +25659,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>-45.37259386379618,170.8652859380264</t>
+          <t>-45.372594215590176,170.86528633594858</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -25655,7 +25686,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>-45.372595763483744,170.86528808680623</t>
+          <t>-45.37259611527772,170.8652884847284</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -25682,7 +25713,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>-45.3726109609828,170.86530527704997</t>
+          <t>-45.37261131277672,170.8653056749724</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -25709,7 +25740,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>-45.372620881571116,170.865316498464</t>
+          <t>-45.37262130372379,170.8653169759711</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -25736,7 +25767,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>-45.372620881571116,170.865316498464</t>
+          <t>-45.37262130372379,170.8653169759711</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -25763,7 +25794,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>-45.372630872517185,170.8653277994665</t>
+          <t>-45.37263136502858,170.8653283565583</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -25790,7 +25821,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>-45.3726288321128,170.86532549151497</t>
+          <t>-45.372629254265426,170.8653259690222</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -25817,7 +25848,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>-45.372624469868775,170.86532055727432</t>
+          <t>-45.372624821662654,170.86532095519692</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -25844,7 +25875,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>-45.37261863009017,170.8653139517598</t>
+          <t>-45.37261898188408,170.8653143496823</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -25871,7 +25902,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>-45.372617011838216,170.86531212131624</t>
+          <t>-45.372617363632116,170.86531251923873</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -25898,7 +25929,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>-45.37263263148645,170.86532978908005</t>
+          <t>-45.37263284256276,170.8653300278337</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -25925,7 +25956,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>-45.37263052072333,170.86532740154382</t>
+          <t>-45.37263080215841,170.865327719882</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -25952,7 +25983,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>-45.37263023928824,170.86532708320567</t>
+          <t>-45.37263052072333,170.86532740154382</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -25979,7 +26010,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>-45.37261954475432,170.86531498635836</t>
+          <t>-45.372619826189435,170.8653153046964</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -26006,7 +26037,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>-45.372619826189435,170.8653153046964</t>
+          <t>-45.37262003726577,170.8653155434499</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -26033,7 +26064,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>-45.37262109264747,170.86531673721754</t>
+          <t>-45.37262123336501,170.8653168963866</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -26060,7 +26091,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>-45.37262242946424,170.8653182493233</t>
+          <t>-45.37262271089936,170.86531856766138</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -26087,7 +26118,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>-45.372620881571116,170.865316498464</t>
+          <t>-45.37262109264747,170.86531673721754</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -26114,7 +26145,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>-45.372620881571116,170.865316498464</t>
+          <t>-45.37262109264747,170.86531673721754</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -26141,7 +26172,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>-45.372614971433514,170.86530981336583</t>
+          <t>-45.37261518250986,170.8653100521193</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -26168,7 +26199,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>-45.372611453494294,170.86530583414134</t>
+          <t>-45.372611594211854,170.86530599331033</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -26222,7 +26253,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>-45.372606598737946,170.8653003428124</t>
+          <t>-45.372606669096726,170.86530042239687</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -26249,7 +26280,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>-45.372606809814314,170.86530058156583</t>
+          <t>-45.372606950531896,170.86530074073474</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -26276,7 +26307,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>-45.37261032775371,170.86530456078964</t>
+          <t>-45.37261046847128,170.8653047199586</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -26303,7 +26334,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>-45.37260688017311,170.86530066115026</t>
+          <t>-45.372607020890676,170.86530082031922</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -26330,7 +26361,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>-45.37260716160826,170.86530097948818</t>
+          <t>-45.37260730232585,170.86530113865712</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -26357,7 +26388,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>-45.372611453494294,170.86530583414134</t>
+          <t>-45.37261152385307,170.86530591372585</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -26384,7 +26415,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>-45.372608076272506,170.86530201408632</t>
+          <t>-45.372608005913726,170.86530193450184</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -26411,7 +26442,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>-45.372612579234854,170.86530710749312</t>
+          <t>-45.372612368158514,170.86530686873968</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -26438,7 +26469,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>-45.37262165551768,170.86531737389365</t>
+          <t>-45.37262137408258,170.8653170555556</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -26465,7 +26496,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>-45.37262531417408,170.8653215122886</t>
+          <t>-45.37262503273899,170.8653211939505</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -26492,7 +26523,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>-45.37263136502858,170.8653283565583</t>
+          <t>-45.372631224311036,170.86532819738923</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -26519,7 +26550,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>-45.37262383663978,170.86531984101364</t>
+          <t>-45.37262355520468,170.86531952267558</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -26546,7 +26577,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>-45.37262468094512,170.8653207960279</t>
+          <t>-45.37262425879245,170.86532031852076</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -26573,7 +26604,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>-45.37263052072333,170.86532740154382</t>
+          <t>-45.37263002821192,170.86532684445208</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -26600,7 +26631,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>-45.37261834865506,170.86531363342175</t>
+          <t>-45.37261785614359,170.86531307633027</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -26627,7 +26658,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>-45.372630942875965,170.86532787905108</t>
+          <t>-45.372630591082114,170.86532748112836</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -26654,7 +26685,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>-45.372630942875965,170.86532787905108</t>
+          <t>-45.372630591082114,170.86532748112836</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -26681,7 +26712,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>-45.37262411807489,170.8653201593517</t>
+          <t>-45.37262369592223,170.86531968184462</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -26708,7 +26739,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>-45.37261799686116,170.86531323549926</t>
+          <t>-45.37261771542603,170.86531291716125</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -26735,7 +26766,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>-45.37262580668552,170.86532206938026</t>
+          <t>-45.37262573632673,170.86532198979575</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -26762,7 +26793,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>-45.37262538453286,170.8653215918731</t>
+          <t>-45.37262531417408,170.8653215122886</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -26789,7 +26820,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>-45.372625103097754,170.86532127353505</t>
+          <t>-45.37262503273899,170.8653211939505</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -26816,7 +26847,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>-45.372625103097754,170.86532127353505</t>
+          <t>-45.37262503273899,170.8653211939505</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -26843,7 +26874,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>-45.37260512120336,170.86529867153857</t>
+          <t>-45.37260505084456,170.8652985919541</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -26870,7 +26901,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>-45.37258091777626,170.86527129449362</t>
+          <t>-45.37258126957031,170.86527169241563</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -26897,7 +26928,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>-45.372585631816335,170.86527662664878</t>
+          <t>-45.372586053969165,170.8652771041553</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -26924,7 +26955,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>-45.37256564991354,170.86525402468362</t>
+          <t>-45.37256600170763,170.8652544226054</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -26951,7 +26982,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>-45.37256818283103,170.86525688972057</t>
+          <t>-45.37256853462512,170.8652572876424</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -26978,7 +27009,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>-45.37257191184832,170.86526110769213</t>
+          <t>-45.37257226364239,170.865261505614</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -27005,7 +27036,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>-45.372571137901346,170.865260232264</t>
+          <t>-45.372571489695424,170.86526063018587</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -27032,7 +27063,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>-45.37257296723054,170.86526230145776</t>
+          <t>-45.37257324866581,170.8652626197953</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -27059,7 +27090,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>-45.37256811247221,170.8652568101362</t>
+          <t>-45.3725684642663,170.86525720805804</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -27086,7 +27117,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>-45.37255826223713,170.86524566832728</t>
+          <t>-45.37255854367243,170.8652459866646</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -27113,7 +27144,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>-45.372570223236735,170.8652591976672</t>
+          <t>-45.372570575030814,170.86525959558907</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -27140,7 +27171,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>-45.372570223236735,170.8652591976672</t>
+          <t>-45.372570575030814,170.86525959558907</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -27167,7 +27198,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>-45.37257134897779,170.86526047101714</t>
+          <t>-45.372571630413056,170.86526078935464</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -27194,7 +27225,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>-45.372590205138565,170.86528179963602</t>
+          <t>-45.37259055693257,170.86528219755814</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -27221,7 +27252,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>-45.37259541168975,170.86528768888402</t>
+          <t>-45.372595763483744,170.86528808680623</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -27248,7 +27279,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>-45.372596678148106,170.86528912140398</t>
+          <t>-45.372596959583284,170.86528943974173</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -27275,7 +27306,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>-45.37260033680547,170.8652932597953</t>
+          <t>-45.372600547881845,170.86529349854862</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -27302,7 +27333,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>-45.372603291874775,170.86529660234248</t>
+          <t>-45.37260343259236,170.86529676151142</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -27329,7 +27360,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>-45.37261060918885,170.86530487912756</t>
+          <t>-45.372610820265216,170.86530511788098</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -27356,7 +27387,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>-45.37262636955571,170.86532270605645</t>
+          <t>-45.372626510273264,170.86532286522552</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -27383,7 +27414,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>-45.37263206861629,170.86532915240372</t>
+          <t>-45.37263220933382,170.8653293115728</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -27410,7 +27441,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>-45.37263579763104,170.8653333703847</t>
+          <t>-45.37263593834859,170.8653335295538</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -27437,7 +27468,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>-45.37263579763104,170.8653333703847</t>
+          <t>-45.37263593834859,170.8653335295538</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -27464,7 +27495,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>-45.37264585893428,170.8653447509777</t>
+          <t>-45.37264607001055,170.86534498973143</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -27491,7 +27522,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>-45.372652894810024,170.8653527094367</t>
+          <t>-45.372652965168776,170.86535278902133</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -27518,7 +27549,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>-45.372653809473825,170.86535374403655</t>
+          <t>-45.37265387983259,170.86535382362112</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -27545,7 +27576,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>-45.37265331696255,170.86535318694433</t>
+          <t>-45.372653528038825,170.86535342569815</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -27572,7 +27603,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>-45.37266302647017,170.86536416962116</t>
+          <t>-45.37266316718766,170.86536432879043</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -27599,7 +27630,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>-45.37266956983343,170.86537157099244</t>
+          <t>-45.372669851268405,170.86537188933102</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -27626,7 +27657,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>-45.37266717763616,170.86536886511456</t>
+          <t>-45.372667529429876,170.86536926303776</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -27653,7 +27684,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>-45.37265190978744,170.86535159525232</t>
+          <t>-45.37265212086372,170.86535183400613</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -27680,7 +27711,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>-45.372649939742274,170.8653493668837</t>
+          <t>-45.372650221177295,170.86534968522207</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -27707,7 +27738,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>-45.37264086346218,170.865339100473</t>
+          <t>-45.37264107453847,170.8653393392267</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -27734,7 +27765,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>-45.37263551619597,170.8653330520465</t>
+          <t>-45.37263579763104,170.8653333703847</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -27761,7 +27792,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>-45.37263551619597,170.8653330520465</t>
+          <t>-45.372635727272275,170.86533329080015</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -27788,7 +27819,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>-45.372627565654874,170.86532405899342</t>
+          <t>-45.37262791744873,170.86532445691608</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -27815,7 +27846,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>-45.37261947439555,170.86531490677385</t>
+          <t>-45.37261968547189,170.86531514552738</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -27842,7 +27873,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>-45.37261764506725,170.86531283757674</t>
+          <t>-45.372617926502365,170.86531315591475</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -27869,7 +27900,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>-45.372609483448265,170.86530360577586</t>
+          <t>-45.3726098352422,170.86530400369827</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -27896,7 +27927,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>-45.372608076272506,170.86530201408632</t>
+          <t>-45.37260842806645,170.8653024120087</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -27923,7 +27954,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>-45.372606598737946,170.8653003428124</t>
+          <t>-45.372606950531896,170.86530074073474</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -27950,7 +27981,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>-45.372606317302775,170.86530002447452</t>
+          <t>-45.372606669096726,170.86530042239687</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -27977,7 +28008,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>-45.37260786519616,170.8653017753329</t>
+          <t>-45.37260814663129,170.8653020936708</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -28004,7 +28035,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>-45.37261447892203,170.86530925627437</t>
+          <t>-45.37261490107474,170.86530973378132</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -28031,7 +28062,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>-45.37262031870089,170.86531586178793</t>
+          <t>-45.37262060013601,170.865316180126</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -28085,7 +28116,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>-45.37265190978744,170.86535159525232</t>
+          <t>-45.37265205050496,170.86535175442154</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -28139,7 +28170,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>-45.3726215851589,170.86531729430916</t>
+          <t>-45.37262172587647,170.86531745347816</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -28220,7 +28251,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>-45.37261468999838,170.86530949502784</t>
+          <t>-45.3726146196396,170.86530941544333</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -28247,7 +28278,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>-45.37261370497541,170.86530838084497</t>
+          <t>-45.37261363461663,170.86530830126046</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -28301,7 +28332,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>-45.372599985011504,170.865292861873</t>
+          <t>-45.3725999146527,170.86529278228855</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -28328,7 +28359,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>-45.3726031511572,170.86529644317355</t>
+          <t>-45.37260301043961,170.86529628400464</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -28409,7 +28440,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>-45.37261215708215,170.8653066299862</t>
+          <t>-45.372612227440925,170.8653067095707</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -28463,7 +28494,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>-45.372622218387924,170.86531801056975</t>
+          <t>-45.37262228874668,170.8653180901543</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -28490,7 +28521,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>-45.37262123336501,170.8653168963866</t>
+          <t>-45.37262137408258,170.8653170555556</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -28517,7 +28548,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>-45.37262024834211,170.86531578220342</t>
+          <t>-45.37262038905967,170.86531594137247</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -28544,7 +28575,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>-45.37262024834211,170.86531578220342</t>
+          <t>-45.37262038905967,170.86531594137247</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -28571,7 +28602,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>-45.37261898188408,170.8653143496823</t>
+          <t>-45.37261912260165,170.86531450885133</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -28598,7 +28629,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>-45.37261574538013,170.86531068879526</t>
+          <t>-45.37261581573892,170.86531076837977</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -28625,7 +28656,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>-45.37261687112064,170.86531196214725</t>
+          <t>-45.372617011838216,170.86531212131624</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -28652,7 +28683,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>-45.37261877080775,170.8653141109288</t>
+          <t>-45.37261884116652,170.8653141905133</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -28679,7 +28710,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>-45.372618278296265,170.86531355383727</t>
+          <t>-45.37261841901384,170.86531371300626</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -28706,7 +28737,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>-45.372610538830074,170.86530479954305</t>
+          <t>-45.372610679547634,170.86530495871204</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -28733,7 +28764,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>-45.37262278125814,170.86531864724589</t>
+          <t>-45.37262292197569,170.86531880641493</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -28760,7 +28791,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>-45.372622499823024,170.86531832890782</t>
+          <t>-45.37262264054057,170.86531848807684</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -28787,7 +28818,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>-45.372621163006244,170.86531681680208</t>
+          <t>-45.37262130372379,170.8653169759711</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -28814,7 +28845,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>-45.372613282822705,170.86530790333802</t>
+          <t>-45.37261342354028,170.86530806250698</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -28841,7 +28872,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>-45.372607020890676,170.86530082031922</t>
+          <t>-45.37260723196705,170.86530105907264</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -28868,7 +28899,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>-45.372609694524634,170.8653038445293</t>
+          <t>-45.372609975959776,170.86530416286723</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -28895,7 +28926,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>-45.372611875647,170.86530631164828</t>
+          <t>-45.372612016364585,170.86530647081722</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -28922,7 +28953,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>-45.37261644896795,170.86531148464024</t>
+          <t>-45.372616730403074,170.86531180297825</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -28949,7 +28980,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>-45.372627424937335,170.86532389982438</t>
+          <t>-45.3726277767312,170.865324297747</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -28976,7 +29007,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>-45.37263333507415,170.8653305849255</t>
+          <t>-45.37263354615046,170.86533082367913</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -29003,7 +29034,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>-45.37264705503319,170.86534610391558</t>
+          <t>-45.372647336468226,170.86534642225394</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -29030,7 +29061,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>-45.37264557749924,170.86534443263938</t>
+          <t>-45.372645788575525,170.86534467139313</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -29057,7 +29088,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>-45.372637064088856,170.8653348029067</t>
+          <t>-45.37263734552391,170.86533512124493</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -29084,7 +29115,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>-45.37265817171648,170.86535867828226</t>
+          <t>-45.37265831243399,170.8653588374515</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -29111,7 +29142,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>-45.37266098606648,170.86536186166703</t>
+          <t>-45.37266112678399,170.86536202083627</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -29138,7 +29169,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>-45.37265803099899,170.86535851911304</t>
+          <t>-45.37265817171648,170.86535867828226</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -29165,7 +29196,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>-45.37266042319649,170.86536122499007</t>
+          <t>-45.37266049355523,170.86536130457466</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -29192,7 +29223,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>-45.3726519801462,170.86535167483694</t>
+          <t>-45.37265212086372,170.86535183400613</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -29219,7 +29250,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>-45.37265359839757,170.86535350528274</t>
+          <t>-45.372653809473825,170.86535374403655</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -29246,7 +29277,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>-45.37265303552753,170.86535286860592</t>
+          <t>-45.37265317624505,170.86535302777511</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -29273,7 +29304,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>-45.37265029153606,170.86534976480664</t>
+          <t>-45.372650432253565,170.86534992397583</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -29300,7 +29331,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>-45.372644451759065,170.86534315928614</t>
+          <t>-45.37264459247658,170.8653433184553</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -29327,7 +29358,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>-45.37263854162295,170.86533647418239</t>
+          <t>-45.372638611981706,170.86533655376695</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -29354,7 +29385,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>-45.37262292197569,170.86531880641493</t>
+          <t>-45.372623062693236,170.86531896558395</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -29381,7 +29412,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>-45.372623062693236,170.86531896558395</t>
+          <t>-45.37262327376958,170.8653192043375</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -29408,7 +29439,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>-45.372623062693236,170.86531896558395</t>
+          <t>-45.37262327376958,170.8653192043375</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -29435,7 +29466,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>-45.372626088120604,170.86532238771835</t>
+          <t>-45.372626228838165,170.8653225468874</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -29462,7 +29493,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>-45.37261877080775,170.8653141109288</t>
+          <t>-45.37261898188408,170.8653143496823</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -29489,7 +29520,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>-45.372619333677974,170.86531474760486</t>
+          <t>-45.37261947439555,170.86531490677385</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -29516,7 +29547,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>-45.37261771542603,170.86531291716125</t>
+          <t>-45.372617785784804,170.86531299674576</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -29543,7 +29574,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>-45.372611101700365,170.86530543621893</t>
+          <t>-45.372611172059145,170.8653055158034</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -29570,7 +29601,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>-45.37261483071595,170.86530965419684</t>
+          <t>-45.37261504179231,170.8653098929503</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -29597,7 +29628,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>-45.37260913165433,170.8653032078535</t>
+          <t>-45.37260941308948,170.86530352619138</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -29624,7 +29655,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>-45.37261300138756,170.86530758500007</t>
+          <t>-45.372613142105145,170.86530774416903</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -29651,7 +29682,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>-45.372631435387355,170.86532843614282</t>
+          <t>-45.372631646463645,170.86532867489646</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -29678,7 +29709,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>-45.37262918390666,170.86532588943766</t>
+          <t>-45.372629254265426,170.8653259690222</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -29705,7 +29736,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>-45.37262918390666,170.86532588943766</t>
+          <t>-45.372629254265426,170.8653259690222</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -29840,7 +29871,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>-45.372642833507534,170.8653413288409</t>
+          <t>-45.37264276314878,170.86534124925635</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -29921,7 +29952,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>-45.372660774990244,170.86536162291316</t>
+          <t>-45.37266063427273,170.8653614637439</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -29948,7 +29979,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>-45.372659086380246,170.86535971288228</t>
+          <t>-45.37265894566274,170.86535955371303</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -29975,7 +30006,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>-45.37265978996775,170.86536050872846</t>
+          <t>-45.372659719609004,170.86536042914386</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -30002,7 +30033,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>-45.372645436781724,170.8653442734702</t>
+          <t>-45.37264529606419,170.86534411430105</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -30029,7 +30060,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>-45.372644873911625,170.8653436367936</t>
+          <t>-45.37264473319411,170.86534347762444</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -30056,7 +30087,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>-45.37264100417971,170.86533925964213</t>
+          <t>-45.37264086346218,170.865339100473</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -30083,7 +30114,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>-45.37263038000578,170.86532724237475</t>
+          <t>-45.37263023928824,170.86532708320567</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -30110,7 +30141,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>-45.37263002821192,170.86532684445208</t>
+          <t>-45.37262995785316,170.86532676486755</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -30137,7 +30168,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>-45.37262770637243,170.86532421816247</t>
+          <t>-45.372627636013654,170.86532413857796</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -30218,7 +30249,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>-45.37262946534175,170.86532620777578</t>
+          <t>-45.37262939498297,170.86532612819127</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -30245,7 +30276,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>-45.37262819888384,170.86532477525418</t>
+          <t>-45.37262798780751,170.86532453650062</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -30254,6 +30285,33 @@
         </is>
       </c>
       <c r="E479" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:28+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-45.37228094742117,170.86608696387577</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-45.37262081121235,170.86531641887953</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>-45.37312519273807,170.86474842540233</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
